--- a/spec/fixtures/files/bulk_products_upload_template.xlsx
+++ b/spec/fixtures/files/bulk_products_upload_template.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://beisgov-my.sharepoint.com/personal/adam_mckeown_beis_gov_uk/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mckeownAd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{05B0855C-E89C-48BC-BAAC-212964C62413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{856FBE61-B6D4-4F71-9A27-7F63DEE8AC04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0DE36F-823E-477A-A412-7AB0EA752032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{0A922D77-A1EA-4094-9FEA-BA55499A7B85}"/>
   </bookViews>
   <sheets>
     <sheet name="Non compliance Form" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -37,7 +37,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="278">
+  <si>
+    <t>* - Depicts a mandatory field</t>
+  </si>
   <si>
     <t>PSD High volume Product entry - Non compliance form</t>
   </si>
@@ -45,25 +48,31 @@
     <t>Entry number</t>
   </si>
   <si>
+    <t>Product category*</t>
+  </si>
+  <si>
+    <t>Product subcategory*</t>
+  </si>
+  <si>
     <t>Customs code</t>
   </si>
   <si>
+    <t>Country of origin*</t>
+  </si>
+  <si>
     <t>Barcode number</t>
   </si>
   <si>
     <t>Product description</t>
   </si>
   <si>
-    <t>How many units affected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manufacturers brand name </t>
+    <t xml:space="preserve">Manufacturer's brand name </t>
   </si>
   <si>
     <t>Batch number</t>
   </si>
   <si>
-    <t>Was the product placed on the market before 1 january 2021</t>
+    <t>Was the product placed on the market before 01 January 2021?</t>
   </si>
   <si>
     <t xml:space="preserve">product category </t>
@@ -117,6 +126,9 @@
     <t>Algeria</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
     <t>UKNI</t>
   </si>
   <si>
@@ -183,9 +195,6 @@
     <t>Austria</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
     <t>Gadgets</t>
   </si>
   <si>
@@ -849,25 +858,19 @@
     <t>Zimbabwe</t>
   </si>
   <si>
-    <t>Product category*</t>
-  </si>
-  <si>
-    <t>Product Subcategory*</t>
-  </si>
-  <si>
-    <t>Country of origin*</t>
-  </si>
-  <si>
-    <t>Product name (including Model and Model Number)*</t>
-  </si>
-  <si>
-    <t>* - Depicts a mandatory field</t>
-  </si>
-  <si>
-    <t>Is the product Counterfeit*</t>
-  </si>
-  <si>
-    <t>Does the Product have any markings*</t>
+    <t>Product name (including model and model number)*</t>
+  </si>
+  <si>
+    <t>How many units affected?</t>
+  </si>
+  <si>
+    <t>Unable to ascertain</t>
+  </si>
+  <si>
+    <t>Is the product counterfeit?*</t>
+  </si>
+  <si>
+    <t>Does the product have any markings?*</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1029,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1080,15 +1083,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,31 +1093,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b/>
@@ -1215,6 +1204,25 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1229,22 +1237,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{867694F3-3E27-48E3-8F51-7010CAE61732}" name="Table2" displayName="Table2" ref="A3:N1147" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{867694F3-3E27-48E3-8F51-7010CAE61732}" name="Table2" displayName="Table2" ref="A3:N1148" totalsRowShown="0" headerRowDxfId="5">
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{469A7E62-25F4-4102-9BC3-D31050B6E87E}" name="Entry number"/>
     <tableColumn id="10" xr3:uid="{6BE21533-79D6-4335-8156-FB0643BC7B9E}" name="Product category*"/>
-    <tableColumn id="2" xr3:uid="{304B92E7-3DD1-47A2-9011-AC26DA616DC6}" name="Product Subcategory*"/>
-    <tableColumn id="3" xr3:uid="{FEA76536-8CF8-44BE-80E9-469D2030E2C9}" name="Customs code" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{304B92E7-3DD1-47A2-9011-AC26DA616DC6}" name="Product subcategory*"/>
+    <tableColumn id="3" xr3:uid="{FEA76536-8CF8-44BE-80E9-469D2030E2C9}" name="Customs code" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{9AC754EA-B41E-4BFF-BC70-BD21CCE7CA97}" name="Country of origin*"/>
     <tableColumn id="5" xr3:uid="{085BBEC2-CE44-4105-82CC-C12FDB6147AD}" name="Barcode number"/>
-    <tableColumn id="6" xr3:uid="{34AFA992-50EA-48C0-9310-8AE1695FB93D}" name="Product name (including Model and Model Number)*"/>
+    <tableColumn id="6" xr3:uid="{34AFA992-50EA-48C0-9310-8AE1695FB93D}" name="Product name (including model and model number)*"/>
     <tableColumn id="14" xr3:uid="{31AF3C34-C24B-45E7-ACC7-C5FFDE9F88DE}" name="Product description"/>
-    <tableColumn id="7" xr3:uid="{42CC2F4D-B72F-495F-8FD4-45CF0A2D9FC3}" name="How many units affected" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{BEA1A82D-7127-4FF1-A172-9004E954033D}" name="Manufacturers brand name "/>
+    <tableColumn id="7" xr3:uid="{42CC2F4D-B72F-495F-8FD4-45CF0A2D9FC3}" name="How many units affected?" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{BEA1A82D-7127-4FF1-A172-9004E954033D}" name="Manufacturer's brand name "/>
     <tableColumn id="11" xr3:uid="{F934820C-29D4-4618-8A92-B227386D6EBF}" name="Batch number"/>
-    <tableColumn id="9" xr3:uid="{F18EE34A-F37C-4ACC-9BB2-3AD9D29DDCA1}" name="Is the product Counterfeit*"/>
-    <tableColumn id="12" xr3:uid="{D96A80FF-8F98-4D69-9AA2-1AC2DDCBF4BF}" name="Does the Product have any markings*"/>
-    <tableColumn id="13" xr3:uid="{D6329CEF-835A-4907-88E4-FA1CDFCF3FA0}" name="Was the product placed on the market before 1 january 2021"/>
+    <tableColumn id="9" xr3:uid="{F18EE34A-F37C-4ACC-9BB2-3AD9D29DDCA1}" name="Is the product counterfeit?*"/>
+    <tableColumn id="12" xr3:uid="{D96A80FF-8F98-4D69-9AA2-1AC2DDCBF4BF}" name="Does the product have any markings?*"/>
+    <tableColumn id="13" xr3:uid="{D6329CEF-835A-4907-88E4-FA1CDFCF3FA0}" name="Was the product placed on the market before 01 January 2021?"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1271,18 +1279,18 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10A81644-88FF-4B4E-BFFB-58699A50B2A4}" name="Table5" displayName="Table5" ref="E2:E199" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10A81644-88FF-4B4E-BFFB-58699A50B2A4}" name="Table5" displayName="Table5" ref="E2:E199" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1">
   <autoFilter ref="E2:E199" xr:uid="{10A81644-88FF-4B4E-BFFB-58699A50B2A4}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{09F182FB-E30D-4BC8-B03D-402C4C98031F}" name="Column1" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{09F182FB-E30D-4BC8-B03D-402C4C98031F}" name="Column1" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CFA119C7-1B18-49C6-AB96-EAE5DB8EB298}" name="Table7" displayName="Table7" ref="K4:K6" totalsRowShown="0">
-  <autoFilter ref="K4:K6" xr:uid="{CFA119C7-1B18-49C6-AB96-EAE5DB8EB298}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{CFA119C7-1B18-49C6-AB96-EAE5DB8EB298}" name="Table7" displayName="Table7" ref="K4:K7" totalsRowShown="0">
+  <autoFilter ref="K4:K7" xr:uid="{CFA119C7-1B18-49C6-AB96-EAE5DB8EB298}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{79B25471-4231-45B0-A6E8-A7E135731D2E}" name="Product Counterfeit"/>
   </tableColumns>
@@ -1301,8 +1309,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{379EB538-800C-40C0-8CE2-3C38387990A7}" name="Table9" displayName="Table9" ref="K11:K13" totalsRowShown="0">
-  <autoFilter ref="K11:K13" xr:uid="{379EB538-800C-40C0-8CE2-3C38387990A7}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{379EB538-800C-40C0-8CE2-3C38387990A7}" name="Table9" displayName="Table9" ref="K11:K15" totalsRowShown="0">
+  <autoFilter ref="K11:K15" xr:uid="{379EB538-800C-40C0-8CE2-3C38387990A7}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{9A5AA7DD-38D6-40BD-9DEB-051943A41D2F}" name="Jan-21"/>
   </tableColumns>
@@ -1607,10 +1615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{178542C5-6217-444B-8AE8-8BE71113E419}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:N1148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1621,7 +1629,7 @@
     <col min="4" max="4" width="19.54296875" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.7265625" customWidth="1"/>
-    <col min="7" max="7" width="45.90625" customWidth="1"/>
+    <col min="7" max="7" width="45.81640625" customWidth="1"/>
     <col min="8" max="8" width="26.453125" customWidth="1"/>
     <col min="9" max="9" width="23.7265625" style="1" customWidth="1"/>
     <col min="10" max="10" width="26.453125" customWidth="1"/>
@@ -1632,70 +1640,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>274</v>
+      <c r="A1" s="24" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:14" s="18" customFormat="1" ht="26" x14ac:dyDescent="0.6">
-      <c r="A2" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="A2" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
     </row>
     <row r="3" spans="1:14" s="1" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="24" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="25" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>5</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="23" t="s">
         <v>273</v>
       </c>
-      <c r="H3" s="26" t="s">
-        <v>4</v>
+      <c r="H3" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>5</v>
+        <v>274</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
@@ -1706,7 +1714,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="J4" s="1"/>
@@ -1719,7 +1727,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="J5" s="1"/>
@@ -1732,7 +1740,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="J6" s="1"/>
@@ -1745,7 +1753,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="J7" s="1"/>
@@ -1754,139 +1762,3484 @@
       <c r="B8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="F10" s="25"/>
     </row>
     <row r="11" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="F11" s="25"/>
     </row>
     <row r="12" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="F12" s="25"/>
     </row>
     <row r="13" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="F13" s="25"/>
     </row>
     <row r="14" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="F14" s="25"/>
     </row>
     <row r="15" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="F15" s="25"/>
     </row>
     <row r="16" spans="1:14" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="F16" s="25"/>
     </row>
     <row r="17" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="F17" s="25"/>
     </row>
     <row r="18" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="F19" s="25"/>
     </row>
     <row r="20" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="F20" s="25"/>
     </row>
     <row r="21" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="F21" s="25"/>
     </row>
     <row r="22" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="F22" s="25"/>
     </row>
     <row r="23" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="F23" s="25"/>
     </row>
     <row r="24" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
+      <c r="F24" s="25"/>
     </row>
     <row r="25" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="F25" s="25"/>
     </row>
     <row r="26" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="F26" s="25"/>
     </row>
     <row r="27" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
+      <c r="F27" s="25"/>
     </row>
     <row r="28" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
+      <c r="F28" s="25"/>
     </row>
     <row r="29" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
+      <c r="F29" s="25"/>
     </row>
     <row r="30" spans="2:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
+      <c r="F30" s="25"/>
+    </row>
+    <row r="31" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F31" s="26"/>
+    </row>
+    <row r="32" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F32" s="26"/>
+    </row>
+    <row r="33" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F33" s="26"/>
+    </row>
+    <row r="34" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F34" s="26"/>
+    </row>
+    <row r="35" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F35" s="26"/>
+    </row>
+    <row r="36" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F36" s="26"/>
+    </row>
+    <row r="37" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F37" s="26"/>
+    </row>
+    <row r="38" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F38" s="26"/>
+    </row>
+    <row r="39" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F39" s="26"/>
+    </row>
+    <row r="40" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F40" s="26"/>
+    </row>
+    <row r="41" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F41" s="26"/>
+    </row>
+    <row r="42" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F42" s="26"/>
+    </row>
+    <row r="43" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="26"/>
+    </row>
+    <row r="44" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F44" s="26"/>
+    </row>
+    <row r="45" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F45" s="26"/>
+    </row>
+    <row r="46" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F46" s="26"/>
+    </row>
+    <row r="47" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F47" s="26"/>
+    </row>
+    <row r="48" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F48" s="26"/>
+    </row>
+    <row r="49" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F49" s="26"/>
+    </row>
+    <row r="50" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F50" s="26"/>
+    </row>
+    <row r="51" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="26"/>
+    </row>
+    <row r="52" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F52" s="26"/>
+    </row>
+    <row r="53" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F53" s="26"/>
+    </row>
+    <row r="54" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F54" s="26"/>
+    </row>
+    <row r="55" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F55" s="26"/>
+    </row>
+    <row r="56" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F56" s="26"/>
+    </row>
+    <row r="57" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F57" s="26"/>
+    </row>
+    <row r="58" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F58" s="26"/>
+    </row>
+    <row r="59" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F59" s="26"/>
+    </row>
+    <row r="60" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F60" s="26"/>
+    </row>
+    <row r="61" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F61" s="26"/>
+    </row>
+    <row r="62" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F62" s="26"/>
+    </row>
+    <row r="63" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F63" s="26"/>
+    </row>
+    <row r="64" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F64" s="26"/>
+    </row>
+    <row r="65" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F65" s="26"/>
+    </row>
+    <row r="66" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F66" s="26"/>
+    </row>
+    <row r="67" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F68" s="26"/>
+    </row>
+    <row r="69" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F69" s="26"/>
+    </row>
+    <row r="70" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F70" s="26"/>
+    </row>
+    <row r="71" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F71" s="26"/>
+    </row>
+    <row r="72" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F72" s="26"/>
+    </row>
+    <row r="73" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F73" s="26"/>
+    </row>
+    <row r="74" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F74" s="26"/>
+    </row>
+    <row r="75" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F75" s="26"/>
+    </row>
+    <row r="76" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F76" s="26"/>
+    </row>
+    <row r="77" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F77" s="26"/>
+    </row>
+    <row r="78" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F78" s="26"/>
+    </row>
+    <row r="79" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F79" s="26"/>
+    </row>
+    <row r="80" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F80" s="26"/>
+    </row>
+    <row r="81" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F81" s="26"/>
+    </row>
+    <row r="82" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F83" s="26"/>
+    </row>
+    <row r="84" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F84" s="26"/>
+    </row>
+    <row r="85" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F85" s="26"/>
+    </row>
+    <row r="86" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F86" s="26"/>
+    </row>
+    <row r="87" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F87" s="26"/>
+    </row>
+    <row r="88" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F88" s="26"/>
+    </row>
+    <row r="89" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F89" s="26"/>
+    </row>
+    <row r="90" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F90" s="26"/>
+    </row>
+    <row r="91" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F91" s="26"/>
+    </row>
+    <row r="92" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F92" s="26"/>
+    </row>
+    <row r="93" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F93" s="26"/>
+    </row>
+    <row r="94" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F94" s="26"/>
+    </row>
+    <row r="95" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F95" s="26"/>
+    </row>
+    <row r="96" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F96" s="26"/>
+    </row>
+    <row r="97" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F97" s="26"/>
+    </row>
+    <row r="98" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F98" s="26"/>
+    </row>
+    <row r="99" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F99" s="26"/>
+    </row>
+    <row r="100" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F100" s="26"/>
+    </row>
+    <row r="101" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F101" s="26"/>
+    </row>
+    <row r="102" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F102" s="26"/>
+    </row>
+    <row r="103" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F103" s="26"/>
+    </row>
+    <row r="104" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F105" s="26"/>
+    </row>
+    <row r="106" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F106" s="26"/>
+    </row>
+    <row r="107" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F107" s="26"/>
+    </row>
+    <row r="108" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F108" s="26"/>
+    </row>
+    <row r="109" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F109" s="26"/>
+    </row>
+    <row r="110" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F110" s="26"/>
+    </row>
+    <row r="111" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F111" s="26"/>
+    </row>
+    <row r="112" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F112" s="26"/>
+    </row>
+    <row r="113" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F113" s="26"/>
+    </row>
+    <row r="114" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F114" s="26"/>
+    </row>
+    <row r="115" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F115" s="26"/>
+    </row>
+    <row r="116" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F116" s="26"/>
+    </row>
+    <row r="117" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F118" s="26"/>
+    </row>
+    <row r="119" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F119" s="26"/>
+    </row>
+    <row r="120" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F120" s="26"/>
+    </row>
+    <row r="121" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F121" s="26"/>
+    </row>
+    <row r="122" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F122" s="26"/>
+    </row>
+    <row r="123" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F123" s="26"/>
+    </row>
+    <row r="124" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F124" s="26"/>
+    </row>
+    <row r="125" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F125" s="26"/>
+    </row>
+    <row r="126" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F126" s="26"/>
+    </row>
+    <row r="127" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F127" s="26"/>
+    </row>
+    <row r="128" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F128" s="26"/>
+    </row>
+    <row r="129" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F129" s="26"/>
+    </row>
+    <row r="130" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F130" s="26"/>
+    </row>
+    <row r="131" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F131" s="26"/>
+    </row>
+    <row r="132" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F132" s="26"/>
+    </row>
+    <row r="133" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F133" s="26"/>
+    </row>
+    <row r="134" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F134" s="26"/>
+    </row>
+    <row r="135" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F135" s="26"/>
+    </row>
+    <row r="136" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F136" s="26"/>
+    </row>
+    <row r="137" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F137" s="26"/>
+    </row>
+    <row r="138" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F138" s="26"/>
+    </row>
+    <row r="139" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F139" s="26"/>
+    </row>
+    <row r="140" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F140" s="26"/>
+    </row>
+    <row r="141" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F141" s="26"/>
+    </row>
+    <row r="142" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F142" s="26"/>
+    </row>
+    <row r="143" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F143" s="26"/>
+    </row>
+    <row r="144" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F144" s="26"/>
+    </row>
+    <row r="145" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F145" s="26"/>
+    </row>
+    <row r="146" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F146" s="26"/>
+    </row>
+    <row r="147" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F147" s="26"/>
+    </row>
+    <row r="148" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F148" s="26"/>
+    </row>
+    <row r="149" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F149" s="26"/>
+    </row>
+    <row r="150" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F150" s="26"/>
+    </row>
+    <row r="151" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F151" s="26"/>
+    </row>
+    <row r="152" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F152" s="26"/>
+    </row>
+    <row r="153" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F153" s="26"/>
+    </row>
+    <row r="154" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F154" s="26"/>
+    </row>
+    <row r="155" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F155" s="26"/>
+    </row>
+    <row r="156" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F156" s="26"/>
+    </row>
+    <row r="157" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F157" s="26"/>
+    </row>
+    <row r="158" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F158" s="26"/>
+    </row>
+    <row r="159" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F159" s="26"/>
+    </row>
+    <row r="160" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F160" s="26"/>
+    </row>
+    <row r="161" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F161" s="26"/>
+    </row>
+    <row r="162" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F162" s="26"/>
+    </row>
+    <row r="163" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F163" s="26"/>
+    </row>
+    <row r="164" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F164" s="26"/>
+    </row>
+    <row r="165" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F165" s="26"/>
+    </row>
+    <row r="166" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F166" s="26"/>
+    </row>
+    <row r="167" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F167" s="26"/>
+    </row>
+    <row r="168" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F168" s="26"/>
+    </row>
+    <row r="169" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F169" s="26"/>
+    </row>
+    <row r="170" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F170" s="26"/>
+    </row>
+    <row r="171" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F171" s="26"/>
+    </row>
+    <row r="172" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F172" s="26"/>
+    </row>
+    <row r="173" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F173" s="26"/>
+    </row>
+    <row r="174" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F174" s="26"/>
+    </row>
+    <row r="175" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F175" s="26"/>
+    </row>
+    <row r="176" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F176" s="26"/>
+    </row>
+    <row r="177" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F177" s="26"/>
+    </row>
+    <row r="178" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F178" s="26"/>
+    </row>
+    <row r="179" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F179" s="26"/>
+    </row>
+    <row r="180" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F180" s="26"/>
+    </row>
+    <row r="181" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F181" s="26"/>
+    </row>
+    <row r="182" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F182" s="26"/>
+    </row>
+    <row r="183" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F183" s="26"/>
+    </row>
+    <row r="184" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F184" s="26"/>
+    </row>
+    <row r="185" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F185" s="26"/>
+    </row>
+    <row r="186" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F186" s="26"/>
+    </row>
+    <row r="187" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F187" s="26"/>
+    </row>
+    <row r="188" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F188" s="26"/>
+    </row>
+    <row r="189" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F189" s="26"/>
+    </row>
+    <row r="190" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F190" s="26"/>
+    </row>
+    <row r="191" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F191" s="26"/>
+    </row>
+    <row r="192" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F192" s="26"/>
+    </row>
+    <row r="193" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F193" s="26"/>
+    </row>
+    <row r="194" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F194" s="26"/>
+    </row>
+    <row r="195" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F195" s="26"/>
+    </row>
+    <row r="196" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F196" s="26"/>
+    </row>
+    <row r="197" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F197" s="26"/>
+    </row>
+    <row r="198" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F198" s="26"/>
+    </row>
+    <row r="199" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F199" s="26"/>
+    </row>
+    <row r="200" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F200" s="26"/>
+    </row>
+    <row r="201" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F201" s="26"/>
+    </row>
+    <row r="202" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F202" s="26"/>
+    </row>
+    <row r="203" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F203" s="26"/>
+    </row>
+    <row r="204" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F204" s="26"/>
+    </row>
+    <row r="205" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F205" s="26"/>
+    </row>
+    <row r="206" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F206" s="26"/>
+    </row>
+    <row r="207" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F207" s="26"/>
+    </row>
+    <row r="208" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F208" s="26"/>
+    </row>
+    <row r="209" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F209" s="26"/>
+    </row>
+    <row r="210" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F210" s="26"/>
+    </row>
+    <row r="211" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F211" s="26"/>
+    </row>
+    <row r="212" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F212" s="26"/>
+    </row>
+    <row r="213" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F213" s="26"/>
+    </row>
+    <row r="214" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F214" s="26"/>
+    </row>
+    <row r="215" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F215" s="26"/>
+    </row>
+    <row r="216" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F216" s="26"/>
+    </row>
+    <row r="217" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F217" s="26"/>
+    </row>
+    <row r="218" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F218" s="26"/>
+    </row>
+    <row r="219" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F219" s="26"/>
+    </row>
+    <row r="220" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F220" s="26"/>
+    </row>
+    <row r="221" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F221" s="26"/>
+    </row>
+    <row r="222" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F222" s="26"/>
+    </row>
+    <row r="223" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F223" s="26"/>
+    </row>
+    <row r="224" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F224" s="26"/>
+    </row>
+    <row r="225" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F225" s="26"/>
+    </row>
+    <row r="226" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F226" s="26"/>
+    </row>
+    <row r="227" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F227" s="26"/>
+    </row>
+    <row r="228" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F228" s="26"/>
+    </row>
+    <row r="229" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F229" s="26"/>
+    </row>
+    <row r="230" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F230" s="26"/>
+    </row>
+    <row r="231" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F231" s="26"/>
+    </row>
+    <row r="232" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F232" s="26"/>
+    </row>
+    <row r="233" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F233" s="26"/>
+    </row>
+    <row r="234" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F234" s="26"/>
+    </row>
+    <row r="235" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F235" s="26"/>
+    </row>
+    <row r="236" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F236" s="26"/>
+    </row>
+    <row r="237" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F237" s="26"/>
+    </row>
+    <row r="238" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F238" s="26"/>
+    </row>
+    <row r="239" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F239" s="26"/>
+    </row>
+    <row r="240" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F240" s="26"/>
+    </row>
+    <row r="241" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F241" s="26"/>
+    </row>
+    <row r="242" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F242" s="26"/>
+    </row>
+    <row r="243" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F243" s="26"/>
+    </row>
+    <row r="244" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F244" s="26"/>
+    </row>
+    <row r="245" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F245" s="26"/>
+    </row>
+    <row r="246" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F246" s="26"/>
+    </row>
+    <row r="247" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F247" s="26"/>
+    </row>
+    <row r="248" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F248" s="26"/>
+    </row>
+    <row r="249" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F249" s="26"/>
+    </row>
+    <row r="250" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F250" s="26"/>
+    </row>
+    <row r="251" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F251" s="26"/>
+    </row>
+    <row r="252" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F252" s="26"/>
+    </row>
+    <row r="253" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F253" s="26"/>
+    </row>
+    <row r="254" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F254" s="26"/>
+    </row>
+    <row r="255" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F255" s="26"/>
+    </row>
+    <row r="256" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F256" s="26"/>
+    </row>
+    <row r="257" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F257" s="26"/>
+    </row>
+    <row r="258" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F258" s="26"/>
+    </row>
+    <row r="259" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F259" s="26"/>
+    </row>
+    <row r="260" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F260" s="26"/>
+    </row>
+    <row r="261" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F261" s="26"/>
+    </row>
+    <row r="262" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F262" s="26"/>
+    </row>
+    <row r="263" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F263" s="26"/>
+    </row>
+    <row r="264" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F264" s="26"/>
+    </row>
+    <row r="265" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F265" s="26"/>
+    </row>
+    <row r="266" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F266" s="26"/>
+    </row>
+    <row r="267" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F267" s="26"/>
+    </row>
+    <row r="268" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F268" s="26"/>
+    </row>
+    <row r="269" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F269" s="26"/>
+    </row>
+    <row r="270" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F270" s="26"/>
+    </row>
+    <row r="271" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F271" s="26"/>
+    </row>
+    <row r="272" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F272" s="26"/>
+    </row>
+    <row r="273" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F273" s="26"/>
+    </row>
+    <row r="274" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F274" s="26"/>
+    </row>
+    <row r="275" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F275" s="26"/>
+    </row>
+    <row r="276" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F276" s="26"/>
+    </row>
+    <row r="277" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F277" s="26"/>
+    </row>
+    <row r="278" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F278" s="26"/>
+    </row>
+    <row r="279" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F279" s="26"/>
+    </row>
+    <row r="280" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F280" s="26"/>
+    </row>
+    <row r="281" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F281" s="26"/>
+    </row>
+    <row r="282" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F282" s="26"/>
+    </row>
+    <row r="283" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F283" s="26"/>
+    </row>
+    <row r="284" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F284" s="26"/>
+    </row>
+    <row r="285" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F285" s="26"/>
+    </row>
+    <row r="286" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F286" s="26"/>
+    </row>
+    <row r="287" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F287" s="26"/>
+    </row>
+    <row r="288" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F288" s="26"/>
+    </row>
+    <row r="289" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F289" s="26"/>
+    </row>
+    <row r="290" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F290" s="26"/>
+    </row>
+    <row r="291" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F291" s="26"/>
+    </row>
+    <row r="292" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F292" s="26"/>
+    </row>
+    <row r="293" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F293" s="26"/>
+    </row>
+    <row r="294" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F294" s="26"/>
+    </row>
+    <row r="295" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F295" s="26"/>
+    </row>
+    <row r="296" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F296" s="26"/>
+    </row>
+    <row r="297" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F297" s="26"/>
+    </row>
+    <row r="298" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F298" s="26"/>
+    </row>
+    <row r="299" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F299" s="26"/>
+    </row>
+    <row r="300" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F300" s="26"/>
+    </row>
+    <row r="301" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F301" s="26"/>
+    </row>
+    <row r="302" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F302" s="26"/>
+    </row>
+    <row r="303" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F303" s="26"/>
+    </row>
+    <row r="304" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F304" s="26"/>
+    </row>
+    <row r="305" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F305" s="26"/>
+    </row>
+    <row r="306" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F306" s="26"/>
+    </row>
+    <row r="307" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F307" s="26"/>
+    </row>
+    <row r="308" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F308" s="26"/>
+    </row>
+    <row r="309" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F309" s="26"/>
+    </row>
+    <row r="310" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F310" s="26"/>
+    </row>
+    <row r="311" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F311" s="26"/>
+    </row>
+    <row r="312" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F312" s="26"/>
+    </row>
+    <row r="313" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F313" s="26"/>
+    </row>
+    <row r="314" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F314" s="26"/>
+    </row>
+    <row r="315" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F315" s="26"/>
+    </row>
+    <row r="316" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F316" s="26"/>
+    </row>
+    <row r="317" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F317" s="26"/>
+    </row>
+    <row r="318" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F318" s="26"/>
+    </row>
+    <row r="319" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F319" s="26"/>
+    </row>
+    <row r="320" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F320" s="26"/>
+    </row>
+    <row r="321" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F321" s="26"/>
+    </row>
+    <row r="322" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F322" s="26"/>
+    </row>
+    <row r="323" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F323" s="26"/>
+    </row>
+    <row r="324" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F324" s="26"/>
+    </row>
+    <row r="325" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F325" s="26"/>
+    </row>
+    <row r="326" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F326" s="26"/>
+    </row>
+    <row r="327" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F327" s="26"/>
+    </row>
+    <row r="328" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F328" s="26"/>
+    </row>
+    <row r="329" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F329" s="26"/>
+    </row>
+    <row r="330" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F330" s="26"/>
+    </row>
+    <row r="331" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F331" s="26"/>
+    </row>
+    <row r="332" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F332" s="26"/>
+    </row>
+    <row r="333" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F333" s="26"/>
+    </row>
+    <row r="334" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F334" s="26"/>
+    </row>
+    <row r="335" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F335" s="26"/>
+    </row>
+    <row r="336" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F336" s="26"/>
+    </row>
+    <row r="337" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F337" s="26"/>
+    </row>
+    <row r="338" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F338" s="26"/>
+    </row>
+    <row r="339" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F339" s="26"/>
+    </row>
+    <row r="340" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F340" s="26"/>
+    </row>
+    <row r="341" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F341" s="26"/>
+    </row>
+    <row r="342" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F342" s="26"/>
+    </row>
+    <row r="343" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F343" s="26"/>
+    </row>
+    <row r="344" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F344" s="26"/>
+    </row>
+    <row r="345" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F345" s="26"/>
+    </row>
+    <row r="346" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F346" s="26"/>
+    </row>
+    <row r="347" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F347" s="26"/>
+    </row>
+    <row r="348" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F348" s="26"/>
+    </row>
+    <row r="349" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F349" s="26"/>
+    </row>
+    <row r="350" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F350" s="26"/>
+    </row>
+    <row r="351" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F351" s="26"/>
+    </row>
+    <row r="352" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F352" s="26"/>
+    </row>
+    <row r="353" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F353" s="26"/>
+    </row>
+    <row r="354" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F354" s="26"/>
+    </row>
+    <row r="355" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F355" s="26"/>
+    </row>
+    <row r="356" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F356" s="26"/>
+    </row>
+    <row r="357" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F357" s="26"/>
+    </row>
+    <row r="358" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F358" s="26"/>
+    </row>
+    <row r="359" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F359" s="26"/>
+    </row>
+    <row r="360" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F360" s="26"/>
+    </row>
+    <row r="361" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F361" s="26"/>
+    </row>
+    <row r="362" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F362" s="26"/>
+    </row>
+    <row r="363" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F363" s="26"/>
+    </row>
+    <row r="364" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F364" s="26"/>
+    </row>
+    <row r="365" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F365" s="26"/>
+    </row>
+    <row r="366" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F366" s="26"/>
+    </row>
+    <row r="367" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F367" s="26"/>
+    </row>
+    <row r="368" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F368" s="26"/>
+    </row>
+    <row r="369" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F369" s="26"/>
+    </row>
+    <row r="370" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F370" s="26"/>
+    </row>
+    <row r="371" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F371" s="26"/>
+    </row>
+    <row r="372" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F372" s="26"/>
+    </row>
+    <row r="373" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F373" s="26"/>
+    </row>
+    <row r="374" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F374" s="26"/>
+    </row>
+    <row r="375" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F375" s="26"/>
+    </row>
+    <row r="376" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F376" s="26"/>
+    </row>
+    <row r="377" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F377" s="26"/>
+    </row>
+    <row r="378" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F378" s="26"/>
+    </row>
+    <row r="379" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F379" s="26"/>
+    </row>
+    <row r="380" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F380" s="26"/>
+    </row>
+    <row r="381" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F381" s="26"/>
+    </row>
+    <row r="382" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F382" s="26"/>
+    </row>
+    <row r="383" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F383" s="26"/>
+    </row>
+    <row r="384" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F384" s="26"/>
+    </row>
+    <row r="385" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F385" s="26"/>
+    </row>
+    <row r="386" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F386" s="26"/>
+    </row>
+    <row r="387" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F387" s="26"/>
+    </row>
+    <row r="388" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F388" s="26"/>
+    </row>
+    <row r="389" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F389" s="26"/>
+    </row>
+    <row r="390" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F390" s="26"/>
+    </row>
+    <row r="391" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F391" s="26"/>
+    </row>
+    <row r="392" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F392" s="26"/>
+    </row>
+    <row r="393" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F393" s="26"/>
+    </row>
+    <row r="394" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F394" s="26"/>
+    </row>
+    <row r="395" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F395" s="26"/>
+    </row>
+    <row r="396" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F396" s="26"/>
+    </row>
+    <row r="397" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F397" s="26"/>
+    </row>
+    <row r="398" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F398" s="26"/>
+    </row>
+    <row r="399" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F399" s="26"/>
+    </row>
+    <row r="400" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F400" s="26"/>
+    </row>
+    <row r="401" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F401" s="26"/>
+    </row>
+    <row r="402" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F402" s="26"/>
+    </row>
+    <row r="403" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F403" s="26"/>
+    </row>
+    <row r="404" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F404" s="26"/>
+    </row>
+    <row r="405" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F405" s="26"/>
+    </row>
+    <row r="406" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F406" s="26"/>
+    </row>
+    <row r="407" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F407" s="26"/>
+    </row>
+    <row r="408" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F408" s="26"/>
+    </row>
+    <row r="409" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F409" s="26"/>
+    </row>
+    <row r="410" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F410" s="26"/>
+    </row>
+    <row r="411" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F411" s="26"/>
+    </row>
+    <row r="412" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F412" s="26"/>
+    </row>
+    <row r="413" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F413" s="26"/>
+    </row>
+    <row r="414" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F414" s="26"/>
+    </row>
+    <row r="415" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F415" s="26"/>
+    </row>
+    <row r="416" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F416" s="26"/>
+    </row>
+    <row r="417" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F417" s="26"/>
+    </row>
+    <row r="418" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F418" s="26"/>
+    </row>
+    <row r="419" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F419" s="26"/>
+    </row>
+    <row r="420" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F420" s="26"/>
+    </row>
+    <row r="421" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F421" s="26"/>
+    </row>
+    <row r="422" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F422" s="26"/>
+    </row>
+    <row r="423" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F423" s="26"/>
+    </row>
+    <row r="424" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F424" s="26"/>
+    </row>
+    <row r="425" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F425" s="26"/>
+    </row>
+    <row r="426" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F426" s="26"/>
+    </row>
+    <row r="427" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F427" s="26"/>
+    </row>
+    <row r="428" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F428" s="26"/>
+    </row>
+    <row r="429" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F429" s="26"/>
+    </row>
+    <row r="430" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F430" s="26"/>
+    </row>
+    <row r="431" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F431" s="26"/>
+    </row>
+    <row r="432" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F432" s="26"/>
+    </row>
+    <row r="433" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F433" s="26"/>
+    </row>
+    <row r="434" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F434" s="26"/>
+    </row>
+    <row r="435" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F435" s="26"/>
+    </row>
+    <row r="436" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F436" s="26"/>
+    </row>
+    <row r="437" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F437" s="26"/>
+    </row>
+    <row r="438" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F438" s="26"/>
+    </row>
+    <row r="439" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F439" s="26"/>
+    </row>
+    <row r="440" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F440" s="26"/>
+    </row>
+    <row r="441" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F441" s="26"/>
+    </row>
+    <row r="442" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F442" s="26"/>
+    </row>
+    <row r="443" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F443" s="26"/>
+    </row>
+    <row r="444" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F444" s="26"/>
+    </row>
+    <row r="445" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F445" s="26"/>
+    </row>
+    <row r="446" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F446" s="26"/>
+    </row>
+    <row r="447" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F447" s="26"/>
+    </row>
+    <row r="448" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F448" s="26"/>
+    </row>
+    <row r="449" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F449" s="26"/>
+    </row>
+    <row r="450" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F450" s="26"/>
+    </row>
+    <row r="451" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F451" s="26"/>
+    </row>
+    <row r="452" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F452" s="26"/>
+    </row>
+    <row r="453" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F453" s="26"/>
+    </row>
+    <row r="454" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F454" s="26"/>
+    </row>
+    <row r="455" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F455" s="26"/>
+    </row>
+    <row r="456" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F456" s="26"/>
+    </row>
+    <row r="457" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F457" s="26"/>
+    </row>
+    <row r="458" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F458" s="26"/>
+    </row>
+    <row r="459" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F459" s="26"/>
+    </row>
+    <row r="460" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F460" s="26"/>
+    </row>
+    <row r="461" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F461" s="26"/>
+    </row>
+    <row r="462" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F462" s="26"/>
+    </row>
+    <row r="463" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F463" s="26"/>
+    </row>
+    <row r="464" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F464" s="26"/>
+    </row>
+    <row r="465" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F465" s="26"/>
+    </row>
+    <row r="466" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F466" s="26"/>
+    </row>
+    <row r="467" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F467" s="26"/>
+    </row>
+    <row r="468" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F468" s="26"/>
+    </row>
+    <row r="469" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F469" s="26"/>
+    </row>
+    <row r="470" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F470" s="26"/>
+    </row>
+    <row r="471" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F471" s="26"/>
+    </row>
+    <row r="472" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F472" s="26"/>
+    </row>
+    <row r="473" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F473" s="26"/>
+    </row>
+    <row r="474" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F474" s="26"/>
+    </row>
+    <row r="475" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F475" s="26"/>
+    </row>
+    <row r="476" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F476" s="26"/>
+    </row>
+    <row r="477" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F477" s="26"/>
+    </row>
+    <row r="478" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F478" s="26"/>
+    </row>
+    <row r="479" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F479" s="26"/>
+    </row>
+    <row r="480" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F480" s="26"/>
+    </row>
+    <row r="481" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F481" s="26"/>
+    </row>
+    <row r="482" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F482" s="26"/>
+    </row>
+    <row r="483" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F483" s="26"/>
+    </row>
+    <row r="484" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F484" s="26"/>
+    </row>
+    <row r="485" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F485" s="26"/>
+    </row>
+    <row r="486" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F486" s="26"/>
+    </row>
+    <row r="487" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F487" s="26"/>
+    </row>
+    <row r="488" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F488" s="26"/>
+    </row>
+    <row r="489" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F489" s="26"/>
+    </row>
+    <row r="490" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F490" s="26"/>
+    </row>
+    <row r="491" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F491" s="26"/>
+    </row>
+    <row r="492" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F492" s="26"/>
+    </row>
+    <row r="493" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F493" s="26"/>
+    </row>
+    <row r="494" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F494" s="26"/>
+    </row>
+    <row r="495" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F495" s="26"/>
+    </row>
+    <row r="496" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F496" s="26"/>
+    </row>
+    <row r="497" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F497" s="26"/>
+    </row>
+    <row r="498" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F498" s="26"/>
+    </row>
+    <row r="499" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F499" s="26"/>
+    </row>
+    <row r="500" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F500" s="26"/>
+    </row>
+    <row r="501" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F501" s="26"/>
+    </row>
+    <row r="502" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F502" s="26"/>
+    </row>
+    <row r="503" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F503" s="26"/>
+    </row>
+    <row r="504" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F504" s="26"/>
+    </row>
+    <row r="505" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F505" s="26"/>
+    </row>
+    <row r="506" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F506" s="26"/>
+    </row>
+    <row r="507" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F507" s="26"/>
+    </row>
+    <row r="508" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F508" s="26"/>
+    </row>
+    <row r="509" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F509" s="26"/>
+    </row>
+    <row r="510" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F510" s="26"/>
+    </row>
+    <row r="511" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F511" s="26"/>
+    </row>
+    <row r="512" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F512" s="26"/>
+    </row>
+    <row r="513" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F513" s="26"/>
+    </row>
+    <row r="514" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F514" s="26"/>
+    </row>
+    <row r="515" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F515" s="26"/>
+    </row>
+    <row r="516" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F516" s="26"/>
+    </row>
+    <row r="517" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F517" s="26"/>
+    </row>
+    <row r="518" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F518" s="26"/>
+    </row>
+    <row r="519" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F519" s="26"/>
+    </row>
+    <row r="520" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F520" s="26"/>
+    </row>
+    <row r="521" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F521" s="26"/>
+    </row>
+    <row r="522" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F522" s="26"/>
+    </row>
+    <row r="523" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F523" s="26"/>
+    </row>
+    <row r="524" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F524" s="26"/>
+    </row>
+    <row r="525" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F525" s="26"/>
+    </row>
+    <row r="526" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F526" s="26"/>
+    </row>
+    <row r="527" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F527" s="26"/>
+    </row>
+    <row r="528" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F528" s="26"/>
+    </row>
+    <row r="529" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F529" s="26"/>
+    </row>
+    <row r="530" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F530" s="26"/>
+    </row>
+    <row r="531" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F531" s="26"/>
+    </row>
+    <row r="532" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F532" s="26"/>
+    </row>
+    <row r="533" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F533" s="26"/>
+    </row>
+    <row r="534" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F534" s="26"/>
+    </row>
+    <row r="535" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F535" s="26"/>
+    </row>
+    <row r="536" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F536" s="26"/>
+    </row>
+    <row r="537" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F537" s="26"/>
+    </row>
+    <row r="538" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F538" s="26"/>
+    </row>
+    <row r="539" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F539" s="26"/>
+    </row>
+    <row r="540" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F540" s="26"/>
+    </row>
+    <row r="541" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F541" s="26"/>
+    </row>
+    <row r="542" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F542" s="26"/>
+    </row>
+    <row r="543" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F543" s="26"/>
+    </row>
+    <row r="544" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F544" s="26"/>
+    </row>
+    <row r="545" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F545" s="26"/>
+    </row>
+    <row r="546" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F546" s="26"/>
+    </row>
+    <row r="547" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F547" s="26"/>
+    </row>
+    <row r="548" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F548" s="26"/>
+    </row>
+    <row r="549" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F549" s="26"/>
+    </row>
+    <row r="550" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F550" s="26"/>
+    </row>
+    <row r="551" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F551" s="26"/>
+    </row>
+    <row r="552" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F552" s="26"/>
+    </row>
+    <row r="553" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F553" s="26"/>
+    </row>
+    <row r="554" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F554" s="26"/>
+    </row>
+    <row r="555" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F555" s="26"/>
+    </row>
+    <row r="556" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F556" s="26"/>
+    </row>
+    <row r="557" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F557" s="26"/>
+    </row>
+    <row r="558" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F558" s="26"/>
+    </row>
+    <row r="559" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F559" s="26"/>
+    </row>
+    <row r="560" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F560" s="26"/>
+    </row>
+    <row r="561" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F561" s="26"/>
+    </row>
+    <row r="562" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F562" s="26"/>
+    </row>
+    <row r="563" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F563" s="26"/>
+    </row>
+    <row r="564" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F564" s="26"/>
+    </row>
+    <row r="565" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F565" s="26"/>
+    </row>
+    <row r="566" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F566" s="26"/>
+    </row>
+    <row r="567" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F567" s="26"/>
+    </row>
+    <row r="568" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F568" s="26"/>
+    </row>
+    <row r="569" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F569" s="26"/>
+    </row>
+    <row r="570" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F570" s="26"/>
+    </row>
+    <row r="571" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F571" s="26"/>
+    </row>
+    <row r="572" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F572" s="26"/>
+    </row>
+    <row r="573" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F573" s="26"/>
+    </row>
+    <row r="574" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F574" s="26"/>
+    </row>
+    <row r="575" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F575" s="26"/>
+    </row>
+    <row r="576" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F576" s="26"/>
+    </row>
+    <row r="577" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F577" s="26"/>
+    </row>
+    <row r="578" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F578" s="26"/>
+    </row>
+    <row r="579" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F579" s="26"/>
+    </row>
+    <row r="580" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F580" s="26"/>
+    </row>
+    <row r="581" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F581" s="26"/>
+    </row>
+    <row r="582" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F582" s="26"/>
+    </row>
+    <row r="583" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F583" s="26"/>
+    </row>
+    <row r="584" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F584" s="26"/>
+    </row>
+    <row r="585" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F585" s="26"/>
+    </row>
+    <row r="586" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F586" s="26"/>
+    </row>
+    <row r="587" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F587" s="26"/>
+    </row>
+    <row r="588" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F588" s="26"/>
+    </row>
+    <row r="589" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F589" s="26"/>
+    </row>
+    <row r="590" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F590" s="26"/>
+    </row>
+    <row r="591" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F591" s="26"/>
+    </row>
+    <row r="592" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F592" s="26"/>
+    </row>
+    <row r="593" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F593" s="26"/>
+    </row>
+    <row r="594" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F594" s="26"/>
+    </row>
+    <row r="595" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F595" s="26"/>
+    </row>
+    <row r="596" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F596" s="26"/>
+    </row>
+    <row r="597" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F597" s="26"/>
+    </row>
+    <row r="598" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F598" s="26"/>
+    </row>
+    <row r="599" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F599" s="26"/>
+    </row>
+    <row r="600" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F600" s="26"/>
+    </row>
+    <row r="601" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F601" s="26"/>
+    </row>
+    <row r="602" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F602" s="26"/>
+    </row>
+    <row r="603" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F603" s="26"/>
+    </row>
+    <row r="604" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F604" s="26"/>
+    </row>
+    <row r="605" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F605" s="26"/>
+    </row>
+    <row r="606" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F606" s="26"/>
+    </row>
+    <row r="607" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F607" s="26"/>
+    </row>
+    <row r="608" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F608" s="26"/>
+    </row>
+    <row r="609" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F609" s="26"/>
+    </row>
+    <row r="610" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F610" s="26"/>
+    </row>
+    <row r="611" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F611" s="26"/>
+    </row>
+    <row r="612" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F612" s="26"/>
+    </row>
+    <row r="613" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F613" s="26"/>
+    </row>
+    <row r="614" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F614" s="26"/>
+    </row>
+    <row r="615" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F615" s="26"/>
+    </row>
+    <row r="616" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F616" s="26"/>
+    </row>
+    <row r="617" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F617" s="26"/>
+    </row>
+    <row r="618" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F618" s="26"/>
+    </row>
+    <row r="619" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F619" s="26"/>
+    </row>
+    <row r="620" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F620" s="26"/>
+    </row>
+    <row r="621" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F621" s="26"/>
+    </row>
+    <row r="622" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F622" s="26"/>
+    </row>
+    <row r="623" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F623" s="26"/>
+    </row>
+    <row r="624" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F624" s="26"/>
+    </row>
+    <row r="625" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F625" s="26"/>
+    </row>
+    <row r="626" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F626" s="26"/>
+    </row>
+    <row r="627" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F627" s="26"/>
+    </row>
+    <row r="628" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F628" s="26"/>
+    </row>
+    <row r="629" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F629" s="26"/>
+    </row>
+    <row r="630" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F630" s="26"/>
+    </row>
+    <row r="631" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F631" s="26"/>
+    </row>
+    <row r="632" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F632" s="26"/>
+    </row>
+    <row r="633" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F633" s="26"/>
+    </row>
+    <row r="634" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F634" s="26"/>
+    </row>
+    <row r="635" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F635" s="26"/>
+    </row>
+    <row r="636" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F636" s="26"/>
+    </row>
+    <row r="637" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F637" s="26"/>
+    </row>
+    <row r="638" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F638" s="26"/>
+    </row>
+    <row r="639" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F639" s="26"/>
+    </row>
+    <row r="640" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F640" s="26"/>
+    </row>
+    <row r="641" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F641" s="26"/>
+    </row>
+    <row r="642" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F642" s="26"/>
+    </row>
+    <row r="643" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F643" s="26"/>
+    </row>
+    <row r="644" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F644" s="26"/>
+    </row>
+    <row r="645" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F645" s="26"/>
+    </row>
+    <row r="646" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F646" s="26"/>
+    </row>
+    <row r="647" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F647" s="26"/>
+    </row>
+    <row r="648" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F648" s="26"/>
+    </row>
+    <row r="649" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F649" s="26"/>
+    </row>
+    <row r="650" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F650" s="26"/>
+    </row>
+    <row r="651" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F651" s="26"/>
+    </row>
+    <row r="652" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F652" s="26"/>
+    </row>
+    <row r="653" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F653" s="26"/>
+    </row>
+    <row r="654" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F654" s="26"/>
+    </row>
+    <row r="655" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F655" s="26"/>
+    </row>
+    <row r="656" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F656" s="26"/>
+    </row>
+    <row r="657" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F657" s="26"/>
+    </row>
+    <row r="658" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F658" s="26"/>
+    </row>
+    <row r="659" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F659" s="26"/>
+    </row>
+    <row r="660" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F660" s="26"/>
+    </row>
+    <row r="661" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F661" s="26"/>
+    </row>
+    <row r="662" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F662" s="26"/>
+    </row>
+    <row r="663" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F663" s="26"/>
+    </row>
+    <row r="664" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F664" s="26"/>
+    </row>
+    <row r="665" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F665" s="26"/>
+    </row>
+    <row r="666" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F666" s="26"/>
+    </row>
+    <row r="667" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F667" s="26"/>
+    </row>
+    <row r="668" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F668" s="26"/>
+    </row>
+    <row r="669" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F669" s="26"/>
+    </row>
+    <row r="670" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F670" s="26"/>
+    </row>
+    <row r="671" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F671" s="26"/>
+    </row>
+    <row r="672" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F672" s="26"/>
+    </row>
+    <row r="673" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F673" s="26"/>
+    </row>
+    <row r="674" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F674" s="26"/>
+    </row>
+    <row r="675" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F675" s="26"/>
+    </row>
+    <row r="676" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F676" s="26"/>
+    </row>
+    <row r="677" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F677" s="26"/>
+    </row>
+    <row r="678" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F678" s="26"/>
+    </row>
+    <row r="679" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F679" s="26"/>
+    </row>
+    <row r="680" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F680" s="26"/>
+    </row>
+    <row r="681" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F681" s="26"/>
+    </row>
+    <row r="682" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F682" s="26"/>
+    </row>
+    <row r="683" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F683" s="26"/>
+    </row>
+    <row r="684" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F684" s="26"/>
+    </row>
+    <row r="685" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F685" s="26"/>
+    </row>
+    <row r="686" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F686" s="26"/>
+    </row>
+    <row r="687" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F687" s="26"/>
+    </row>
+    <row r="688" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F688" s="26"/>
+    </row>
+    <row r="689" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F689" s="26"/>
+    </row>
+    <row r="690" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F690" s="26"/>
+    </row>
+    <row r="691" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F691" s="26"/>
+    </row>
+    <row r="692" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F692" s="26"/>
+    </row>
+    <row r="693" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F693" s="26"/>
+    </row>
+    <row r="694" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F694" s="26"/>
+    </row>
+    <row r="695" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F695" s="26"/>
+    </row>
+    <row r="696" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F696" s="26"/>
+    </row>
+    <row r="697" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F697" s="26"/>
+    </row>
+    <row r="698" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F698" s="26"/>
+    </row>
+    <row r="699" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F699" s="26"/>
+    </row>
+    <row r="700" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F700" s="26"/>
+    </row>
+    <row r="701" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F701" s="26"/>
+    </row>
+    <row r="702" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F702" s="26"/>
+    </row>
+    <row r="703" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F703" s="26"/>
+    </row>
+    <row r="704" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F704" s="26"/>
+    </row>
+    <row r="705" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F705" s="26"/>
+    </row>
+    <row r="706" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F706" s="26"/>
+    </row>
+    <row r="707" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F707" s="26"/>
+    </row>
+    <row r="708" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F708" s="26"/>
+    </row>
+    <row r="709" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F709" s="26"/>
+    </row>
+    <row r="710" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F710" s="26"/>
+    </row>
+    <row r="711" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F711" s="26"/>
+    </row>
+    <row r="712" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F712" s="26"/>
+    </row>
+    <row r="713" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F713" s="26"/>
+    </row>
+    <row r="714" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F714" s="26"/>
+    </row>
+    <row r="715" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F715" s="26"/>
+    </row>
+    <row r="716" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F716" s="26"/>
+    </row>
+    <row r="717" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F717" s="26"/>
+    </row>
+    <row r="718" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F718" s="26"/>
+    </row>
+    <row r="719" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F719" s="26"/>
+    </row>
+    <row r="720" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F720" s="26"/>
+    </row>
+    <row r="721" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F721" s="26"/>
+    </row>
+    <row r="722" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F722" s="26"/>
+    </row>
+    <row r="723" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F723" s="26"/>
+    </row>
+    <row r="724" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F724" s="26"/>
+    </row>
+    <row r="725" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F725" s="26"/>
+    </row>
+    <row r="726" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F726" s="26"/>
+    </row>
+    <row r="727" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F727" s="26"/>
+    </row>
+    <row r="728" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F728" s="26"/>
+    </row>
+    <row r="729" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F729" s="26"/>
+    </row>
+    <row r="730" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F730" s="26"/>
+    </row>
+    <row r="731" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F731" s="26"/>
+    </row>
+    <row r="732" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F732" s="26"/>
+    </row>
+    <row r="733" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F733" s="26"/>
+    </row>
+    <row r="734" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F734" s="26"/>
+    </row>
+    <row r="735" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F735" s="26"/>
+    </row>
+    <row r="736" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F736" s="26"/>
+    </row>
+    <row r="737" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F737" s="26"/>
+    </row>
+    <row r="738" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F738" s="26"/>
+    </row>
+    <row r="739" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F739" s="26"/>
+    </row>
+    <row r="740" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F740" s="26"/>
+    </row>
+    <row r="741" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F741" s="26"/>
+    </row>
+    <row r="742" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F742" s="26"/>
+    </row>
+    <row r="743" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F743" s="26"/>
+    </row>
+    <row r="744" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F744" s="26"/>
+    </row>
+    <row r="745" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F745" s="26"/>
+    </row>
+    <row r="746" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F746" s="26"/>
+    </row>
+    <row r="747" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F747" s="26"/>
+    </row>
+    <row r="748" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F748" s="26"/>
+    </row>
+    <row r="749" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F749" s="26"/>
+    </row>
+    <row r="750" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F750" s="26"/>
+    </row>
+    <row r="751" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F751" s="26"/>
+    </row>
+    <row r="752" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F752" s="26"/>
+    </row>
+    <row r="753" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F753" s="26"/>
+    </row>
+    <row r="754" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F754" s="26"/>
+    </row>
+    <row r="755" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F755" s="26"/>
+    </row>
+    <row r="756" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F756" s="26"/>
+    </row>
+    <row r="757" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F757" s="26"/>
+    </row>
+    <row r="758" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F758" s="26"/>
+    </row>
+    <row r="759" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F759" s="26"/>
+    </row>
+    <row r="760" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F760" s="26"/>
+    </row>
+    <row r="761" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F761" s="26"/>
+    </row>
+    <row r="762" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F762" s="26"/>
+    </row>
+    <row r="763" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F763" s="26"/>
+    </row>
+    <row r="764" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F764" s="26"/>
+    </row>
+    <row r="765" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F765" s="26"/>
+    </row>
+    <row r="766" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F766" s="26"/>
+    </row>
+    <row r="767" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F767" s="26"/>
+    </row>
+    <row r="768" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F768" s="26"/>
+    </row>
+    <row r="769" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F769" s="26"/>
+    </row>
+    <row r="770" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F770" s="26"/>
+    </row>
+    <row r="771" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F771" s="26"/>
+    </row>
+    <row r="772" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F772" s="26"/>
+    </row>
+    <row r="773" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F773" s="26"/>
+    </row>
+    <row r="774" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F774" s="26"/>
+    </row>
+    <row r="775" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F775" s="26"/>
+    </row>
+    <row r="776" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F776" s="26"/>
+    </row>
+    <row r="777" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F777" s="26"/>
+    </row>
+    <row r="778" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F778" s="26"/>
+    </row>
+    <row r="779" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F779" s="26"/>
+    </row>
+    <row r="780" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F780" s="26"/>
+    </row>
+    <row r="781" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F781" s="26"/>
+    </row>
+    <row r="782" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F782" s="26"/>
+    </row>
+    <row r="783" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F783" s="26"/>
+    </row>
+    <row r="784" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F784" s="26"/>
+    </row>
+    <row r="785" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F785" s="26"/>
+    </row>
+    <row r="786" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F786" s="26"/>
+    </row>
+    <row r="787" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F787" s="26"/>
+    </row>
+    <row r="788" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F788" s="26"/>
+    </row>
+    <row r="789" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F789" s="26"/>
+    </row>
+    <row r="790" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F790" s="26"/>
+    </row>
+    <row r="791" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F791" s="26"/>
+    </row>
+    <row r="792" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F792" s="26"/>
+    </row>
+    <row r="793" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F793" s="26"/>
+    </row>
+    <row r="794" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F794" s="26"/>
+    </row>
+    <row r="795" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F795" s="26"/>
+    </row>
+    <row r="796" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F796" s="26"/>
+    </row>
+    <row r="797" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F797" s="26"/>
+    </row>
+    <row r="798" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F798" s="26"/>
+    </row>
+    <row r="799" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F799" s="26"/>
+    </row>
+    <row r="800" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F800" s="26"/>
+    </row>
+    <row r="801" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F801" s="26"/>
+    </row>
+    <row r="802" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F802" s="26"/>
+    </row>
+    <row r="803" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F803" s="26"/>
+    </row>
+    <row r="804" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F804" s="26"/>
+    </row>
+    <row r="805" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F805" s="26"/>
+    </row>
+    <row r="806" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F806" s="26"/>
+    </row>
+    <row r="807" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F807" s="26"/>
+    </row>
+    <row r="808" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F808" s="26"/>
+    </row>
+    <row r="809" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F809" s="26"/>
+    </row>
+    <row r="810" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F810" s="26"/>
+    </row>
+    <row r="811" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F811" s="26"/>
+    </row>
+    <row r="812" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F812" s="26"/>
+    </row>
+    <row r="813" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F813" s="26"/>
+    </row>
+    <row r="814" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F814" s="26"/>
+    </row>
+    <row r="815" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F815" s="26"/>
+    </row>
+    <row r="816" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F816" s="26"/>
+    </row>
+    <row r="817" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F817" s="26"/>
+    </row>
+    <row r="818" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F818" s="26"/>
+    </row>
+    <row r="819" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F819" s="26"/>
+    </row>
+    <row r="820" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F820" s="26"/>
+    </row>
+    <row r="821" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F821" s="26"/>
+    </row>
+    <row r="822" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F822" s="26"/>
+    </row>
+    <row r="823" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F823" s="26"/>
+    </row>
+    <row r="824" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F824" s="26"/>
+    </row>
+    <row r="825" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F825" s="26"/>
+    </row>
+    <row r="826" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F826" s="26"/>
+    </row>
+    <row r="827" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F827" s="26"/>
+    </row>
+    <row r="828" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F828" s="26"/>
+    </row>
+    <row r="829" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F829" s="26"/>
+    </row>
+    <row r="830" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F830" s="26"/>
+    </row>
+    <row r="831" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F831" s="26"/>
+    </row>
+    <row r="832" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F832" s="26"/>
+    </row>
+    <row r="833" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F833" s="26"/>
+    </row>
+    <row r="834" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F834" s="26"/>
+    </row>
+    <row r="835" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F835" s="26"/>
+    </row>
+    <row r="836" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F836" s="26"/>
+    </row>
+    <row r="837" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F837" s="26"/>
+    </row>
+    <row r="838" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F838" s="26"/>
+    </row>
+    <row r="839" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F839" s="26"/>
+    </row>
+    <row r="840" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F840" s="26"/>
+    </row>
+    <row r="841" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F841" s="26"/>
+    </row>
+    <row r="842" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F842" s="26"/>
+    </row>
+    <row r="843" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F843" s="26"/>
+    </row>
+    <row r="844" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F844" s="26"/>
+    </row>
+    <row r="845" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F845" s="26"/>
+    </row>
+    <row r="846" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F846" s="26"/>
+    </row>
+    <row r="847" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F847" s="26"/>
+    </row>
+    <row r="848" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F848" s="26"/>
+    </row>
+    <row r="849" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F849" s="26"/>
+    </row>
+    <row r="850" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F850" s="26"/>
+    </row>
+    <row r="851" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F851" s="26"/>
+    </row>
+    <row r="852" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F852" s="26"/>
+    </row>
+    <row r="853" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F853" s="26"/>
+    </row>
+    <row r="854" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F854" s="26"/>
+    </row>
+    <row r="855" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F855" s="26"/>
+    </row>
+    <row r="856" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F856" s="26"/>
+    </row>
+    <row r="857" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F857" s="26"/>
+    </row>
+    <row r="858" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F858" s="26"/>
+    </row>
+    <row r="859" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F859" s="26"/>
+    </row>
+    <row r="860" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F860" s="26"/>
+    </row>
+    <row r="861" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F861" s="26"/>
+    </row>
+    <row r="862" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F862" s="26"/>
+    </row>
+    <row r="863" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F863" s="26"/>
+    </row>
+    <row r="864" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F864" s="26"/>
+    </row>
+    <row r="865" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F865" s="26"/>
+    </row>
+    <row r="866" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F866" s="26"/>
+    </row>
+    <row r="867" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F867" s="26"/>
+    </row>
+    <row r="868" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F868" s="26"/>
+    </row>
+    <row r="869" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F869" s="26"/>
+    </row>
+    <row r="870" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F870" s="26"/>
+    </row>
+    <row r="871" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F871" s="26"/>
+    </row>
+    <row r="872" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F872" s="26"/>
+    </row>
+    <row r="873" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F873" s="26"/>
+    </row>
+    <row r="874" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F874" s="26"/>
+    </row>
+    <row r="875" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F875" s="26"/>
+    </row>
+    <row r="876" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F876" s="26"/>
+    </row>
+    <row r="877" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F877" s="26"/>
+    </row>
+    <row r="878" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F878" s="26"/>
+    </row>
+    <row r="879" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F879" s="26"/>
+    </row>
+    <row r="880" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F880" s="26"/>
+    </row>
+    <row r="881" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F881" s="26"/>
+    </row>
+    <row r="882" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F882" s="26"/>
+    </row>
+    <row r="883" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F883" s="26"/>
+    </row>
+    <row r="884" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F884" s="26"/>
+    </row>
+    <row r="885" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F885" s="26"/>
+    </row>
+    <row r="886" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F886" s="26"/>
+    </row>
+    <row r="887" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F887" s="26"/>
+    </row>
+    <row r="888" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F888" s="26"/>
+    </row>
+    <row r="889" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F889" s="26"/>
+    </row>
+    <row r="890" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F890" s="26"/>
+    </row>
+    <row r="891" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F891" s="26"/>
+    </row>
+    <row r="892" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F892" s="26"/>
+    </row>
+    <row r="893" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F893" s="26"/>
+    </row>
+    <row r="894" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F894" s="26"/>
+    </row>
+    <row r="895" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F895" s="26"/>
+    </row>
+    <row r="896" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F896" s="26"/>
+    </row>
+    <row r="897" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F897" s="26"/>
+    </row>
+    <row r="898" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F898" s="26"/>
+    </row>
+    <row r="899" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F899" s="26"/>
+    </row>
+    <row r="900" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F900" s="26"/>
+    </row>
+    <row r="901" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F901" s="26"/>
+    </row>
+    <row r="902" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F902" s="26"/>
+    </row>
+    <row r="903" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F903" s="26"/>
+    </row>
+    <row r="904" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F904" s="26"/>
+    </row>
+    <row r="905" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F905" s="26"/>
+    </row>
+    <row r="906" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F906" s="26"/>
+    </row>
+    <row r="907" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F907" s="26"/>
+    </row>
+    <row r="908" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F908" s="26"/>
+    </row>
+    <row r="909" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F909" s="26"/>
+    </row>
+    <row r="910" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F910" s="26"/>
+    </row>
+    <row r="911" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F911" s="26"/>
+    </row>
+    <row r="912" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F912" s="26"/>
+    </row>
+    <row r="913" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F913" s="26"/>
+    </row>
+    <row r="914" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F914" s="26"/>
+    </row>
+    <row r="915" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F915" s="26"/>
+    </row>
+    <row r="916" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F916" s="26"/>
+    </row>
+    <row r="917" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F917" s="26"/>
+    </row>
+    <row r="918" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F918" s="26"/>
+    </row>
+    <row r="919" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F919" s="26"/>
+    </row>
+    <row r="920" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F920" s="26"/>
+    </row>
+    <row r="921" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F921" s="26"/>
+    </row>
+    <row r="922" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F922" s="26"/>
+    </row>
+    <row r="923" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F923" s="26"/>
+    </row>
+    <row r="924" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F924" s="26"/>
+    </row>
+    <row r="925" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F925" s="26"/>
+    </row>
+    <row r="926" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F926" s="26"/>
+    </row>
+    <row r="927" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F927" s="26"/>
+    </row>
+    <row r="928" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F928" s="26"/>
+    </row>
+    <row r="929" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F929" s="26"/>
+    </row>
+    <row r="930" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F930" s="26"/>
+    </row>
+    <row r="931" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F931" s="26"/>
+    </row>
+    <row r="932" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F932" s="26"/>
+    </row>
+    <row r="933" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F933" s="26"/>
+    </row>
+    <row r="934" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F934" s="26"/>
+    </row>
+    <row r="935" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F935" s="26"/>
+    </row>
+    <row r="936" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F936" s="26"/>
+    </row>
+    <row r="937" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F937" s="26"/>
+    </row>
+    <row r="938" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F938" s="26"/>
+    </row>
+    <row r="939" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F939" s="26"/>
+    </row>
+    <row r="940" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F940" s="26"/>
+    </row>
+    <row r="941" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F941" s="26"/>
+    </row>
+    <row r="942" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F942" s="26"/>
+    </row>
+    <row r="943" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F943" s="26"/>
+    </row>
+    <row r="944" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F944" s="26"/>
+    </row>
+    <row r="945" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F945" s="26"/>
+    </row>
+    <row r="946" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F946" s="26"/>
+    </row>
+    <row r="947" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F947" s="26"/>
+    </row>
+    <row r="948" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F948" s="26"/>
+    </row>
+    <row r="949" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F949" s="26"/>
+    </row>
+    <row r="950" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F950" s="26"/>
+    </row>
+    <row r="951" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F951" s="26"/>
+    </row>
+    <row r="952" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F952" s="26"/>
+    </row>
+    <row r="953" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F953" s="26"/>
+    </row>
+    <row r="954" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F954" s="26"/>
+    </row>
+    <row r="955" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F955" s="26"/>
+    </row>
+    <row r="956" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F956" s="26"/>
+    </row>
+    <row r="957" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F957" s="26"/>
+    </row>
+    <row r="958" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F958" s="26"/>
+    </row>
+    <row r="959" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F959" s="26"/>
+    </row>
+    <row r="960" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F960" s="26"/>
+    </row>
+    <row r="961" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F961" s="26"/>
+    </row>
+    <row r="962" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F962" s="26"/>
+    </row>
+    <row r="963" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F963" s="26"/>
+    </row>
+    <row r="964" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F964" s="26"/>
+    </row>
+    <row r="965" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F965" s="26"/>
+    </row>
+    <row r="966" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F966" s="26"/>
+    </row>
+    <row r="967" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F967" s="26"/>
+    </row>
+    <row r="968" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F968" s="26"/>
+    </row>
+    <row r="969" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F969" s="26"/>
+    </row>
+    <row r="970" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F970" s="26"/>
+    </row>
+    <row r="971" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F971" s="26"/>
+    </row>
+    <row r="972" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F972" s="26"/>
+    </row>
+    <row r="973" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F973" s="26"/>
+    </row>
+    <row r="974" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F974" s="26"/>
+    </row>
+    <row r="975" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F975" s="26"/>
+    </row>
+    <row r="976" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F976" s="26"/>
+    </row>
+    <row r="977" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F977" s="26"/>
+    </row>
+    <row r="978" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F978" s="26"/>
+    </row>
+    <row r="979" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F979" s="26"/>
+    </row>
+    <row r="980" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F980" s="26"/>
+    </row>
+    <row r="981" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F981" s="26"/>
+    </row>
+    <row r="982" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F982" s="26"/>
+    </row>
+    <row r="983" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F983" s="26"/>
+    </row>
+    <row r="984" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F984" s="26"/>
+    </row>
+    <row r="985" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F985" s="26"/>
+    </row>
+    <row r="986" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F986" s="26"/>
+    </row>
+    <row r="987" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F987" s="26"/>
+    </row>
+    <row r="988" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F988" s="26"/>
+    </row>
+    <row r="989" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F989" s="26"/>
+    </row>
+    <row r="990" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F990" s="26"/>
+    </row>
+    <row r="991" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F991" s="26"/>
+    </row>
+    <row r="992" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F992" s="26"/>
+    </row>
+    <row r="993" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F993" s="26"/>
+    </row>
+    <row r="994" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F994" s="26"/>
+    </row>
+    <row r="995" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F995" s="26"/>
+    </row>
+    <row r="996" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F996" s="26"/>
+    </row>
+    <row r="997" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F997" s="26"/>
+    </row>
+    <row r="998" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F998" s="26"/>
+    </row>
+    <row r="999" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F999" s="26"/>
+    </row>
+    <row r="1000" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1000" s="26"/>
+    </row>
+    <row r="1001" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1001" s="26"/>
+    </row>
+    <row r="1002" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1002" s="26"/>
+    </row>
+    <row r="1003" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1003" s="26"/>
+    </row>
+    <row r="1004" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1004" s="26"/>
+    </row>
+    <row r="1005" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1005" s="26"/>
+    </row>
+    <row r="1006" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1006" s="26"/>
+    </row>
+    <row r="1007" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1007" s="26"/>
+    </row>
+    <row r="1008" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1008" s="26"/>
+    </row>
+    <row r="1009" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1009" s="26"/>
+    </row>
+    <row r="1010" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1010" s="26"/>
+    </row>
+    <row r="1011" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1011" s="26"/>
+    </row>
+    <row r="1012" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1012" s="26"/>
+    </row>
+    <row r="1013" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1013" s="26"/>
+    </row>
+    <row r="1014" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1014" s="26"/>
+    </row>
+    <row r="1015" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1015" s="26"/>
+    </row>
+    <row r="1016" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1016" s="26"/>
+    </row>
+    <row r="1017" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1017" s="26"/>
+    </row>
+    <row r="1018" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1018" s="26"/>
+    </row>
+    <row r="1019" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1019" s="26"/>
+    </row>
+    <row r="1020" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1020" s="26"/>
+    </row>
+    <row r="1021" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1021" s="26"/>
+    </row>
+    <row r="1022" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1022" s="26"/>
+    </row>
+    <row r="1023" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1023" s="26"/>
+    </row>
+    <row r="1024" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1024" s="26"/>
+    </row>
+    <row r="1025" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1025" s="26"/>
+    </row>
+    <row r="1026" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1026" s="26"/>
+    </row>
+    <row r="1027" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1027" s="26"/>
+    </row>
+    <row r="1028" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1028" s="26"/>
+    </row>
+    <row r="1029" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1029" s="26"/>
+    </row>
+    <row r="1030" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1030" s="26"/>
+    </row>
+    <row r="1031" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1031" s="26"/>
+    </row>
+    <row r="1032" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1032" s="26"/>
+    </row>
+    <row r="1033" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1033" s="26"/>
+    </row>
+    <row r="1034" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1034" s="26"/>
+    </row>
+    <row r="1035" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1035" s="26"/>
+    </row>
+    <row r="1036" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1036" s="26"/>
+    </row>
+    <row r="1037" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1037" s="26"/>
+    </row>
+    <row r="1038" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1038" s="26"/>
+    </row>
+    <row r="1039" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1039" s="26"/>
+    </row>
+    <row r="1040" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1040" s="26"/>
+    </row>
+    <row r="1041" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1041" s="26"/>
+    </row>
+    <row r="1042" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1042" s="26"/>
+    </row>
+    <row r="1043" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1043" s="26"/>
+    </row>
+    <row r="1044" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1044" s="26"/>
+    </row>
+    <row r="1045" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1045" s="26"/>
+    </row>
+    <row r="1046" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1046" s="26"/>
+    </row>
+    <row r="1047" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1047" s="26"/>
+    </row>
+    <row r="1048" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1048" s="26"/>
+    </row>
+    <row r="1049" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1049" s="26"/>
+    </row>
+    <row r="1050" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1050" s="26"/>
+    </row>
+    <row r="1051" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1051" s="26"/>
+    </row>
+    <row r="1052" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1052" s="26"/>
+    </row>
+    <row r="1053" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1053" s="26"/>
+    </row>
+    <row r="1054" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1054" s="26"/>
+    </row>
+    <row r="1055" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1055" s="26"/>
+    </row>
+    <row r="1056" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1056" s="26"/>
+    </row>
+    <row r="1057" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1057" s="26"/>
+    </row>
+    <row r="1058" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1058" s="26"/>
+    </row>
+    <row r="1059" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1059" s="26"/>
+    </row>
+    <row r="1060" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1060" s="26"/>
+    </row>
+    <row r="1061" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1061" s="26"/>
+    </row>
+    <row r="1062" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1062" s="26"/>
+    </row>
+    <row r="1063" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1063" s="26"/>
+    </row>
+    <row r="1064" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1064" s="26"/>
+    </row>
+    <row r="1065" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1065" s="26"/>
+    </row>
+    <row r="1066" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1066" s="26"/>
+    </row>
+    <row r="1067" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1067" s="26"/>
+    </row>
+    <row r="1068" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1068" s="26"/>
+    </row>
+    <row r="1069" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1069" s="26"/>
+    </row>
+    <row r="1070" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1070" s="26"/>
+    </row>
+    <row r="1071" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1071" s="26"/>
+    </row>
+    <row r="1072" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1072" s="26"/>
+    </row>
+    <row r="1073" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1073" s="26"/>
+    </row>
+    <row r="1074" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1074" s="26"/>
+    </row>
+    <row r="1075" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1075" s="26"/>
+    </row>
+    <row r="1076" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1076" s="26"/>
+    </row>
+    <row r="1077" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1077" s="26"/>
+    </row>
+    <row r="1078" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1078" s="26"/>
+    </row>
+    <row r="1079" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1079" s="26"/>
+    </row>
+    <row r="1080" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1080" s="26"/>
+    </row>
+    <row r="1081" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1081" s="26"/>
+    </row>
+    <row r="1082" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1082" s="26"/>
+    </row>
+    <row r="1083" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1083" s="26"/>
+    </row>
+    <row r="1084" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1084" s="26"/>
+    </row>
+    <row r="1085" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1085" s="26"/>
+    </row>
+    <row r="1086" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1086" s="26"/>
+    </row>
+    <row r="1087" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1087" s="26"/>
+    </row>
+    <row r="1088" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1088" s="26"/>
+    </row>
+    <row r="1089" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1089" s="26"/>
+    </row>
+    <row r="1090" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1090" s="26"/>
+    </row>
+    <row r="1091" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1091" s="26"/>
+    </row>
+    <row r="1092" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1092" s="26"/>
+    </row>
+    <row r="1093" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1093" s="26"/>
+    </row>
+    <row r="1094" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1094" s="26"/>
+    </row>
+    <row r="1095" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1095" s="26"/>
+    </row>
+    <row r="1096" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1096" s="26"/>
+    </row>
+    <row r="1097" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1097" s="26"/>
+    </row>
+    <row r="1098" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1098" s="26"/>
+    </row>
+    <row r="1099" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1099" s="26"/>
+    </row>
+    <row r="1100" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1100" s="26"/>
+    </row>
+    <row r="1101" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1101" s="26"/>
+    </row>
+    <row r="1102" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1102" s="26"/>
+    </row>
+    <row r="1103" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1103" s="26"/>
+    </row>
+    <row r="1104" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1104" s="26"/>
+    </row>
+    <row r="1105" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1105" s="26"/>
+    </row>
+    <row r="1106" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1106" s="26"/>
+    </row>
+    <row r="1107" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1107" s="26"/>
+    </row>
+    <row r="1108" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1108" s="26"/>
+    </row>
+    <row r="1109" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1109" s="26"/>
+    </row>
+    <row r="1110" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1110" s="26"/>
+    </row>
+    <row r="1111" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1111" s="26"/>
+    </row>
+    <row r="1112" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1112" s="26"/>
+    </row>
+    <row r="1113" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1113" s="26"/>
+    </row>
+    <row r="1114" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1114" s="26"/>
+    </row>
+    <row r="1115" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1115" s="26"/>
+    </row>
+    <row r="1116" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1116" s="26"/>
+    </row>
+    <row r="1117" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1117" s="26"/>
+    </row>
+    <row r="1118" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1118" s="26"/>
+    </row>
+    <row r="1119" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1119" s="26"/>
+    </row>
+    <row r="1120" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1120" s="26"/>
+    </row>
+    <row r="1121" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1121" s="26"/>
+    </row>
+    <row r="1122" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1122" s="26"/>
+    </row>
+    <row r="1123" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1123" s="26"/>
+    </row>
+    <row r="1124" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1124" s="26"/>
+    </row>
+    <row r="1125" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1125" s="26"/>
+    </row>
+    <row r="1126" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1126" s="26"/>
+    </row>
+    <row r="1127" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1127" s="26"/>
+    </row>
+    <row r="1128" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1128" s="26"/>
+    </row>
+    <row r="1129" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1129" s="26"/>
+    </row>
+    <row r="1130" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1130" s="26"/>
+    </row>
+    <row r="1131" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1131" s="26"/>
+    </row>
+    <row r="1132" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1132" s="26"/>
+    </row>
+    <row r="1133" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1133" s="26"/>
+    </row>
+    <row r="1134" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1134" s="26"/>
+    </row>
+    <row r="1135" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1135" s="26"/>
+    </row>
+    <row r="1136" spans="6:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1136" s="26"/>
+    </row>
+    <row r="1137" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1137" s="26"/>
+    </row>
+    <row r="1138" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1138" s="26"/>
+    </row>
+    <row r="1139" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1139" s="26"/>
+    </row>
+    <row r="1140" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1140" s="26"/>
+    </row>
+    <row r="1141" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1141" s="26"/>
+    </row>
+    <row r="1142" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1142" s="26"/>
+    </row>
+    <row r="1143" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1143" s="26"/>
+    </row>
+    <row r="1144" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1144" s="26"/>
+    </row>
+    <row r="1148" spans="4:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D1148" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1894,16 +5247,13 @@
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3:I1147" xr:uid="{1BB69A5B-C49F-4A27-B70B-7A26E4C9B30E}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I4:I1148" xr:uid="{1BB69A5B-C49F-4A27-B70B-7A26E4C9B30E}">
       <formula1>0</formula1>
       <formula2>100000000000000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="I3" listDataValidation="1"/>
-  </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1914,31 +5264,31 @@
           <x14:formula1>
             <xm:f>Sheet2!$A$2:$A$35</xm:f>
           </x14:formula1>
-          <xm:sqref>B4:B1147</xm:sqref>
+          <xm:sqref>B4:B1148</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4963A105-866A-46AF-AE59-62F56F57C6DA}">
           <x14:formula1>
             <xm:f>Sheet2!$E$5:$E$199</xm:f>
           </x14:formula1>
-          <xm:sqref>E4:E1147</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94123A99-EF15-40DC-B898-5713B8E9B462}">
-          <x14:formula1>
-            <xm:f>Sheet2!$K$5:$K$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>L4:L97</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{3712DE1A-E877-4A14-B6E9-AF71889EC66B}">
-          <x14:formula1>
-            <xm:f>Sheet2!$K$12:$K$13</xm:f>
-          </x14:formula1>
-          <xm:sqref>N4:N21</xm:sqref>
+          <xm:sqref>E4:E1148</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{EB7C2986-B3BE-41DD-9828-92D18866E144}">
           <x14:formula1>
             <xm:f>Sheet2!$M$6:$M$14</xm:f>
           </x14:formula1>
           <xm:sqref>M4:M63</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1741F233-8BD8-4B6C-93CD-331C73BE3E99}">
+          <x14:formula1>
+            <xm:f>Sheet2!$K$12:$K$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>N4:N217</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{70E05853-9D22-4140-ADBB-7F0887C04C33}">
+          <x14:formula1>
+            <xm:f>Sheet2!$K$5:$K$7</xm:f>
+          </x14:formula1>
+          <xm:sqref>L4:L217</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1951,7 +5301,7 @@
   <dimension ref="A1:M199"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1964,16 +5314,16 @@
   <sheetData>
     <row r="1" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="22"/>
+        <v>13</v>
+      </c>
+      <c r="D2" s="28"/>
       <c r="E2" s="6" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
@@ -1981,11 +5331,11 @@
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="23"/>
+        <v>15</v>
+      </c>
+      <c r="D3" s="29"/>
       <c r="E3" s="6" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
@@ -1993,7 +5343,7 @@
     </row>
     <row r="4" spans="1:13" ht="15.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="17"/>
@@ -2001,181 +5351,187 @@
       <c r="G4" s="12"/>
       <c r="H4" s="13"/>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="13"/>
       <c r="K5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="12"/>
       <c r="H6" s="13"/>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
       <c r="M7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="12"/>
       <c r="H8" s="13"/>
       <c r="M8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="M9" s="20" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
       <c r="H10" s="13"/>
       <c r="M10" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
       <c r="H11" s="13"/>
       <c r="K11" s="19" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
       <c r="H12" s="13"/>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
       <c r="H13" s="13"/>
       <c r="K13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M13" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="12"/>
       <c r="H14" s="13"/>
+      <c r="K14" t="s">
+        <v>275</v>
+      </c>
       <c r="M14" s="20" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="12"/>
@@ -2183,11 +5539,11 @@
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="13"/>
@@ -2195,11 +5551,11 @@
     </row>
     <row r="17" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -2207,11 +5563,11 @@
     </row>
     <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="13"/>
@@ -2219,11 +5575,11 @@
     </row>
     <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -2231,11 +5587,11 @@
     </row>
     <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="12"/>
@@ -2243,11 +5599,11 @@
     </row>
     <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -2255,11 +5611,11 @@
     </row>
     <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F22" s="11"/>
       <c r="G22" s="12"/>
@@ -2267,11 +5623,11 @@
     </row>
     <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D23" s="9"/>
       <c r="E23" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="12"/>
@@ -2279,11 +5635,11 @@
     </row>
     <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="12"/>
@@ -2291,11 +5647,11 @@
     </row>
     <row r="25" spans="1:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
@@ -2303,11 +5659,11 @@
     </row>
     <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
@@ -2315,11 +5671,11 @@
     </row>
     <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
@@ -2327,11 +5683,11 @@
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="10" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
@@ -2339,11 +5695,11 @@
     </row>
     <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
@@ -2351,11 +5707,11 @@
     </row>
     <row r="30" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="10" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
@@ -2363,11 +5719,11 @@
     </row>
     <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="10" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
@@ -2375,11 +5731,11 @@
     </row>
     <row r="32" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D32" s="9"/>
       <c r="E32" s="10" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
@@ -2387,11 +5743,11 @@
     </row>
     <row r="33" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
@@ -2399,11 +5755,11 @@
     </row>
     <row r="34" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
@@ -2411,11 +5767,11 @@
     </row>
     <row r="35" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
@@ -2424,7 +5780,7 @@
     <row r="36" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D36" s="9"/>
       <c r="E36" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
@@ -2432,11 +5788,11 @@
     </row>
     <row r="37" spans="1:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="10" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
@@ -2444,11 +5800,11 @@
     </row>
     <row r="38" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="10" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
@@ -2456,11 +5812,11 @@
     </row>
     <row r="39" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="10" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
@@ -2468,11 +5824,11 @@
     </row>
     <row r="40" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D40" s="9"/>
       <c r="E40" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
@@ -2480,11 +5836,11 @@
     </row>
     <row r="41" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D41" s="9"/>
       <c r="E41" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
@@ -2492,11 +5848,11 @@
     </row>
     <row r="42" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D42" s="9"/>
       <c r="E42" s="10" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
@@ -2504,11 +5860,11 @@
     </row>
     <row r="43" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="10" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
@@ -2516,11 +5872,11 @@
     </row>
     <row r="44" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D44" s="9"/>
       <c r="E44" s="10" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
@@ -2528,11 +5884,11 @@
     </row>
     <row r="45" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="10" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
@@ -2540,11 +5896,11 @@
     </row>
     <row r="46" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D46" s="9"/>
       <c r="E46" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
@@ -2552,11 +5908,11 @@
     </row>
     <row r="47" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="10" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
@@ -2564,11 +5920,11 @@
     </row>
     <row r="48" spans="1:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D48" s="9"/>
       <c r="E48" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
@@ -2576,11 +5932,11 @@
     </row>
     <row r="49" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
@@ -2588,11 +5944,11 @@
     </row>
     <row r="50" spans="1:8" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D50" s="9"/>
       <c r="E50" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
@@ -2600,11 +5956,11 @@
     </row>
     <row r="51" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D51" s="9"/>
       <c r="E51" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
@@ -2613,7 +5969,7 @@
     <row r="52" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D52" s="9"/>
       <c r="E52" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="F52" s="11"/>
       <c r="G52" s="13"/>
@@ -2622,7 +5978,7 @@
     <row r="53" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D53" s="9"/>
       <c r="E53" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
@@ -2631,7 +5987,7 @@
     <row r="54" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D54" s="9"/>
       <c r="E54" s="10" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
@@ -2640,7 +5996,7 @@
     <row r="55" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D55" s="9"/>
       <c r="E55" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
@@ -2649,7 +6005,7 @@
     <row r="56" spans="1:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D56" s="9"/>
       <c r="E56" s="10" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
@@ -2658,7 +6014,7 @@
     <row r="57" spans="1:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D57" s="9"/>
       <c r="E57" s="10" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="F57" s="11"/>
       <c r="G57" s="12"/>
@@ -2667,7 +6023,7 @@
     <row r="58" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D58" s="9"/>
       <c r="E58" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="12"/>
@@ -2676,7 +6032,7 @@
     <row r="59" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D59" s="9"/>
       <c r="E59" s="10" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F59" s="11"/>
       <c r="G59" s="12"/>
@@ -2685,7 +6041,7 @@
     <row r="60" spans="1:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D60" s="9"/>
       <c r="E60" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="12"/>
@@ -2694,7 +6050,7 @@
     <row r="61" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D61" s="9"/>
       <c r="E61" s="10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="12"/>
@@ -2703,7 +6059,7 @@
     <row r="62" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D62" s="9"/>
       <c r="E62" s="10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F62" s="11"/>
       <c r="G62" s="12"/>
@@ -2712,7 +6068,7 @@
     <row r="63" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D63" s="9"/>
       <c r="E63" s="10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="F63" s="11"/>
       <c r="G63" s="12"/>
@@ -2721,7 +6077,7 @@
     <row r="64" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D64" s="9"/>
       <c r="E64" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="12"/>
@@ -2730,7 +6086,7 @@
     <row r="65" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D65" s="9"/>
       <c r="E65" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="F65" s="11"/>
       <c r="G65" s="12"/>
@@ -2739,7 +6095,7 @@
     <row r="66" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D66" s="9"/>
       <c r="E66" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="12"/>
@@ -2748,7 +6104,7 @@
     <row r="67" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D67" s="9"/>
       <c r="E67" s="10" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F67" s="11"/>
       <c r="G67" s="12"/>
@@ -2757,7 +6113,7 @@
     <row r="68" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D68" s="9"/>
       <c r="E68" s="10" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F68" s="11"/>
       <c r="G68" s="12"/>
@@ -2766,7 +6122,7 @@
     <row r="69" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D69" s="9"/>
       <c r="E69" s="10" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="F69" s="11"/>
       <c r="G69" s="12"/>
@@ -2775,7 +6131,7 @@
     <row r="70" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D70" s="9"/>
       <c r="E70" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F70" s="11"/>
       <c r="G70" s="12"/>
@@ -2784,7 +6140,7 @@
     <row r="71" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D71" s="9"/>
       <c r="E71" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F71" s="11"/>
       <c r="G71" s="13"/>
@@ -2793,7 +6149,7 @@
     <row r="72" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D72" s="9"/>
       <c r="E72" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="F72" s="11"/>
       <c r="G72" s="12"/>
@@ -2802,7 +6158,7 @@
     <row r="73" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D73" s="9"/>
       <c r="E73" s="10" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F73" s="11"/>
       <c r="G73" s="12"/>
@@ -2811,7 +6167,7 @@
     <row r="74" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D74" s="9"/>
       <c r="E74" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="12"/>
@@ -2820,7 +6176,7 @@
     <row r="75" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D75" s="9"/>
       <c r="E75" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="F75" s="11"/>
       <c r="G75" s="12"/>
@@ -2829,7 +6185,7 @@
     <row r="76" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D76" s="9"/>
       <c r="E76" s="10" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="12"/>
@@ -2838,7 +6194,7 @@
     <row r="77" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D77" s="9"/>
       <c r="E77" s="10" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F77" s="14"/>
       <c r="G77" s="13"/>
@@ -2847,7 +6203,7 @@
     <row r="78" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D78" s="9"/>
       <c r="E78" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="12"/>
@@ -2856,7 +6212,7 @@
     <row r="79" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D79" s="9"/>
       <c r="E79" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F79" s="11"/>
       <c r="G79" s="12"/>
@@ -2865,7 +6221,7 @@
     <row r="80" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D80" s="9"/>
       <c r="E80" s="10" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="12"/>
@@ -2874,7 +6230,7 @@
     <row r="81" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D81" s="9"/>
       <c r="E81" s="10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="12"/>
@@ -2883,7 +6239,7 @@
     <row r="82" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D82" s="9"/>
       <c r="E82" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="12"/>
@@ -2892,7 +6248,7 @@
     <row r="83" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D83" s="9"/>
       <c r="E83" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F83" s="11"/>
       <c r="G83" s="12"/>
@@ -2901,7 +6257,7 @@
     <row r="84" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D84" s="9"/>
       <c r="E84" s="10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="12"/>
@@ -2910,7 +6266,7 @@
     <row r="85" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D85" s="9"/>
       <c r="E85" s="10" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="12"/>
@@ -2919,7 +6275,7 @@
     <row r="86" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D86" s="9"/>
       <c r="E86" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F86" s="11"/>
       <c r="G86" s="12"/>
@@ -2928,7 +6284,7 @@
     <row r="87" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D87" s="9"/>
       <c r="E87" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="12"/>
@@ -2937,7 +6293,7 @@
     <row r="88" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D88" s="9"/>
       <c r="E88" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="12"/>
@@ -2946,7 +6302,7 @@
     <row r="89" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D89" s="9"/>
       <c r="E89" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="12"/>
@@ -2955,7 +6311,7 @@
     <row r="90" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D90" s="9"/>
       <c r="E90" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F90" s="11"/>
       <c r="G90" s="12"/>
@@ -2964,7 +6320,7 @@
     <row r="91" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D91" s="9"/>
       <c r="E91" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F91" s="11"/>
       <c r="G91" s="12"/>
@@ -2973,7 +6329,7 @@
     <row r="92" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D92" s="9"/>
       <c r="E92" s="10" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="12"/>
@@ -2982,7 +6338,7 @@
     <row r="93" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D93" s="9"/>
       <c r="E93" s="10" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F93" s="11"/>
       <c r="G93" s="13"/>
@@ -2991,7 +6347,7 @@
     <row r="94" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D94" s="9"/>
       <c r="E94" s="10" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F94" s="11"/>
       <c r="G94" s="12"/>
@@ -3000,7 +6356,7 @@
     <row r="95" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D95" s="9"/>
       <c r="E95" s="10" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="12"/>
@@ -3009,7 +6365,7 @@
     <row r="96" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D96" s="9"/>
       <c r="E96" s="10" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="12"/>
@@ -3018,7 +6374,7 @@
     <row r="97" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D97" s="9"/>
       <c r="E97" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F97" s="11"/>
       <c r="G97" s="12"/>
@@ -3027,7 +6383,7 @@
     <row r="98" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D98" s="9"/>
       <c r="E98" s="10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="12"/>
@@ -3036,7 +6392,7 @@
     <row r="99" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D99" s="9"/>
       <c r="E99" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="12"/>
@@ -3045,7 +6401,7 @@
     <row r="100" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D100" s="9"/>
       <c r="E100" s="10" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F100" s="11"/>
       <c r="G100" s="12"/>
@@ -3054,7 +6410,7 @@
     <row r="101" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D101" s="9"/>
       <c r="E101" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="12"/>
@@ -3063,7 +6419,7 @@
     <row r="102" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D102" s="9"/>
       <c r="E102" s="10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="13"/>
@@ -3072,7 +6428,7 @@
     <row r="103" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D103" s="9"/>
       <c r="E103" s="10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="12"/>
@@ -3081,7 +6437,7 @@
     <row r="104" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D104" s="9"/>
       <c r="E104" s="10" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="12"/>
@@ -3090,7 +6446,7 @@
     <row r="105" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D105" s="9"/>
       <c r="E105" s="10" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="12"/>
@@ -3099,7 +6455,7 @@
     <row r="106" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D106" s="9"/>
       <c r="E106" s="10" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F106" s="11"/>
       <c r="G106" s="12"/>
@@ -3108,7 +6464,7 @@
     <row r="107" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D107" s="9"/>
       <c r="E107" s="10" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F107" s="11"/>
       <c r="G107" s="12"/>
@@ -3117,7 +6473,7 @@
     <row r="108" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D108" s="9"/>
       <c r="E108" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="13"/>
@@ -3126,7 +6482,7 @@
     <row r="109" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D109" s="9"/>
       <c r="E109" s="10" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F109" s="11"/>
       <c r="G109" s="12"/>
@@ -3135,7 +6491,7 @@
     <row r="110" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D110" s="9"/>
       <c r="E110" s="10" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F110" s="11"/>
       <c r="G110" s="13"/>
@@ -3144,7 +6500,7 @@
     <row r="111" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D111" s="9"/>
       <c r="E111" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="13"/>
@@ -3153,7 +6509,7 @@
     <row r="112" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D112" s="9"/>
       <c r="E112" s="10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F112" s="11"/>
       <c r="G112" s="12"/>
@@ -3162,7 +6518,7 @@
     <row r="113" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D113" s="9"/>
       <c r="E113" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="F113" s="11"/>
       <c r="G113" s="12"/>
@@ -3171,7 +6527,7 @@
     <row r="114" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D114" s="9"/>
       <c r="E114" s="10" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F114" s="11"/>
       <c r="G114" s="12"/>
@@ -3180,7 +6536,7 @@
     <row r="115" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D115" s="9"/>
       <c r="E115" s="10" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="13"/>
@@ -3189,7 +6545,7 @@
     <row r="116" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D116" s="9"/>
       <c r="E116" s="10" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="12"/>
@@ -3198,7 +6554,7 @@
     <row r="117" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D117" s="9"/>
       <c r="E117" s="10" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="13"/>
@@ -3207,7 +6563,7 @@
     <row r="118" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D118" s="9"/>
       <c r="E118" s="10" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F118" s="11"/>
       <c r="G118" s="12"/>
@@ -3216,7 +6572,7 @@
     <row r="119" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D119" s="9"/>
       <c r="E119" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F119" s="11"/>
       <c r="G119" s="12"/>
@@ -3225,7 +6581,7 @@
     <row r="120" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D120" s="9"/>
       <c r="E120" s="10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="12"/>
@@ -3234,7 +6590,7 @@
     <row r="121" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D121" s="9"/>
       <c r="E121" s="10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="12"/>
@@ -3243,7 +6599,7 @@
     <row r="122" spans="4:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D122" s="9"/>
       <c r="E122" s="10" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="12"/>
@@ -3252,7 +6608,7 @@
     <row r="123" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D123" s="9"/>
       <c r="E123" s="10" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="12"/>
@@ -3261,7 +6617,7 @@
     <row r="124" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D124" s="9"/>
       <c r="E124" s="10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="F124" s="11"/>
       <c r="G124" s="13"/>
@@ -3270,7 +6626,7 @@
     <row r="125" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D125" s="9"/>
       <c r="E125" s="10" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F125" s="11"/>
       <c r="G125" s="12"/>
@@ -3279,7 +6635,7 @@
     <row r="126" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D126" s="9"/>
       <c r="E126" s="10" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="12"/>
@@ -3288,7 +6644,7 @@
     <row r="127" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D127" s="9"/>
       <c r="E127" s="10" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F127" s="11"/>
       <c r="G127" s="12"/>
@@ -3297,7 +6653,7 @@
     <row r="128" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D128" s="9"/>
       <c r="E128" s="10" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="12"/>
@@ -3306,7 +6662,7 @@
     <row r="129" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D129" s="9"/>
       <c r="E129" s="10" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F129" s="11"/>
       <c r="G129" s="12"/>
@@ -3315,7 +6671,7 @@
     <row r="130" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D130" s="9"/>
       <c r="E130" s="10" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F130" s="11"/>
       <c r="G130" s="12"/>
@@ -3324,7 +6680,7 @@
     <row r="131" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D131" s="9"/>
       <c r="E131" s="10" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="12"/>
@@ -3333,7 +6689,7 @@
     <row r="132" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D132" s="9"/>
       <c r="E132" s="10" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F132" s="11"/>
       <c r="G132" s="12"/>
@@ -3342,7 +6698,7 @@
     <row r="133" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D133" s="9"/>
       <c r="E133" s="10" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F133" s="11"/>
       <c r="G133" s="12"/>
@@ -3351,7 +6707,7 @@
     <row r="134" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D134" s="9"/>
       <c r="E134" s="10" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="12"/>
@@ -3360,7 +6716,7 @@
     <row r="135" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D135" s="9"/>
       <c r="E135" s="10" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="F135" s="11"/>
       <c r="G135" s="12"/>
@@ -3369,7 +6725,7 @@
     <row r="136" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D136" s="9"/>
       <c r="E136" s="10" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F136" s="11"/>
       <c r="G136" s="13"/>
@@ -3378,7 +6734,7 @@
     <row r="137" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D137" s="9"/>
       <c r="E137" s="10" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="12"/>
@@ -3387,7 +6743,7 @@
     <row r="138" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D138" s="9"/>
       <c r="E138" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F138" s="11"/>
       <c r="G138" s="12"/>
@@ -3396,7 +6752,7 @@
     <row r="139" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D139" s="9"/>
       <c r="E139" s="10" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="12"/>
@@ -3405,7 +6761,7 @@
     <row r="140" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D140" s="9"/>
       <c r="E140" s="10" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="12"/>
@@ -3414,7 +6770,7 @@
     <row r="141" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D141" s="9"/>
       <c r="E141" s="10" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="12"/>
@@ -3423,7 +6779,7 @@
     <row r="142" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D142" s="9"/>
       <c r="E142" s="10" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="12"/>
@@ -3432,7 +6788,7 @@
     <row r="143" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D143" s="9"/>
       <c r="E143" s="10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F143" s="11"/>
       <c r="G143" s="12"/>
@@ -3441,7 +6797,7 @@
     <row r="144" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D144" s="9"/>
       <c r="E144" s="10" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F144" s="11"/>
       <c r="G144" s="12"/>
@@ -3450,7 +6806,7 @@
     <row r="145" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D145" s="9"/>
       <c r="E145" s="10" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="12"/>
@@ -3459,7 +6815,7 @@
     <row r="146" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D146" s="9"/>
       <c r="E146" s="10" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F146" s="11"/>
       <c r="G146" s="12"/>
@@ -3468,7 +6824,7 @@
     <row r="147" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D147" s="9"/>
       <c r="E147" s="10" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F147" s="11"/>
       <c r="G147" s="12"/>
@@ -3477,7 +6833,7 @@
     <row r="148" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D148" s="9"/>
       <c r="E148" s="10" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F148" s="11"/>
       <c r="G148" s="12"/>
@@ -3486,7 +6842,7 @@
     <row r="149" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D149" s="9"/>
       <c r="E149" s="10" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F149" s="11"/>
       <c r="G149" s="13"/>
@@ -3495,7 +6851,7 @@
     <row r="150" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D150" s="9"/>
       <c r="E150" s="10" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="13"/>
@@ -3504,7 +6860,7 @@
     <row r="151" spans="4:8" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D151" s="9"/>
       <c r="E151" s="10" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F151" s="11"/>
       <c r="G151" s="13"/>
@@ -3513,7 +6869,7 @@
     <row r="152" spans="4:8" ht="24.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D152" s="9"/>
       <c r="E152" s="10" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F152" s="11"/>
       <c r="G152" s="12"/>
@@ -3522,7 +6878,7 @@
     <row r="153" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D153" s="9"/>
       <c r="E153" s="10" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F153" s="11"/>
       <c r="G153" s="13"/>
@@ -3531,7 +6887,7 @@
     <row r="154" spans="4:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D154" s="9"/>
       <c r="E154" s="10" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F154" s="11"/>
       <c r="G154" s="13"/>
@@ -3540,7 +6896,7 @@
     <row r="155" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D155" s="9"/>
       <c r="E155" s="10" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F155" s="11"/>
       <c r="G155" s="12"/>
@@ -3549,7 +6905,7 @@
     <row r="156" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D156" s="9"/>
       <c r="E156" s="10" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F156" s="11"/>
       <c r="G156" s="12"/>
@@ -3558,7 +6914,7 @@
     <row r="157" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D157" s="9"/>
       <c r="E157" s="10" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F157" s="11"/>
       <c r="G157" s="12"/>
@@ -3567,7 +6923,7 @@
     <row r="158" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D158" s="9"/>
       <c r="E158" s="10" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="F158" s="11"/>
       <c r="G158" s="13"/>
@@ -3576,7 +6932,7 @@
     <row r="159" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D159" s="9"/>
       <c r="E159" s="10" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F159" s="11"/>
       <c r="G159" s="12"/>
@@ -3585,7 +6941,7 @@
     <row r="160" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D160" s="9"/>
       <c r="E160" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F160" s="11"/>
       <c r="G160" s="13"/>
@@ -3594,7 +6950,7 @@
     <row r="161" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D161" s="9"/>
       <c r="E161" s="10" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F161" s="11"/>
       <c r="G161" s="12"/>
@@ -3603,7 +6959,7 @@
     <row r="162" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D162" s="9"/>
       <c r="E162" s="10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F162" s="11"/>
       <c r="G162" s="12"/>
@@ -3612,7 +6968,7 @@
     <row r="163" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D163" s="9"/>
       <c r="E163" s="10" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F163" s="11"/>
       <c r="G163" s="12"/>
@@ -3621,7 +6977,7 @@
     <row r="164" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D164" s="9"/>
       <c r="E164" s="10" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F164" s="11"/>
       <c r="G164" s="12"/>
@@ -3630,7 +6986,7 @@
     <row r="165" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D165" s="9"/>
       <c r="E165" s="10" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F165" s="11"/>
       <c r="G165" s="12"/>
@@ -3639,7 +6995,7 @@
     <row r="166" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D166" s="9"/>
       <c r="E166" s="10" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F166" s="11"/>
       <c r="G166" s="12"/>
@@ -3648,7 +7004,7 @@
     <row r="167" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D167" s="9"/>
       <c r="E167" s="10" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F167" s="11"/>
       <c r="G167" s="12"/>
@@ -3657,7 +7013,7 @@
     <row r="168" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D168" s="9"/>
       <c r="E168" s="10" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F168" s="11"/>
       <c r="G168" s="12"/>
@@ -3666,7 +7022,7 @@
     <row r="169" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D169" s="9"/>
       <c r="E169" s="10" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F169" s="11"/>
       <c r="G169" s="12"/>
@@ -3675,7 +7031,7 @@
     <row r="170" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D170" s="9"/>
       <c r="E170" s="10" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F170" s="11"/>
       <c r="G170" s="12"/>
@@ -3684,7 +7040,7 @@
     <row r="171" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D171" s="9"/>
       <c r="E171" s="10" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F171" s="11"/>
       <c r="G171" s="12"/>
@@ -3693,7 +7049,7 @@
     <row r="172" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D172" s="9"/>
       <c r="E172" s="10" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F172" s="11"/>
       <c r="G172" s="12"/>
@@ -3702,7 +7058,7 @@
     <row r="173" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D173" s="9"/>
       <c r="E173" s="10" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F173" s="11"/>
       <c r="G173" s="12"/>
@@ -3711,7 +7067,7 @@
     <row r="174" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D174" s="9"/>
       <c r="E174" s="10" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F174" s="11"/>
       <c r="G174" s="12"/>
@@ -3720,7 +7076,7 @@
     <row r="175" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D175" s="9"/>
       <c r="E175" s="10" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F175" s="11"/>
       <c r="G175" s="12"/>
@@ -3729,7 +7085,7 @@
     <row r="176" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D176" s="9"/>
       <c r="E176" s="10" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F176" s="11"/>
       <c r="G176" s="12"/>
@@ -3738,7 +7094,7 @@
     <row r="177" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D177" s="9"/>
       <c r="E177" s="10" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F177" s="11"/>
       <c r="G177" s="12"/>
@@ -3747,7 +7103,7 @@
     <row r="178" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D178" s="9"/>
       <c r="E178" s="10" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F178" s="11"/>
       <c r="G178" s="12"/>
@@ -3756,7 +7112,7 @@
     <row r="179" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D179" s="9"/>
       <c r="E179" s="10" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F179" s="11"/>
       <c r="G179" s="12"/>
@@ -3765,7 +7121,7 @@
     <row r="180" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D180" s="9"/>
       <c r="E180" s="10" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F180" s="11"/>
       <c r="G180" s="13"/>
@@ -3774,7 +7130,7 @@
     <row r="181" spans="4:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D181" s="9"/>
       <c r="E181" s="10" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="F181" s="11"/>
       <c r="G181" s="12"/>
@@ -3783,7 +7139,7 @@
     <row r="182" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D182" s="9"/>
       <c r="E182" s="10" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="F182" s="11"/>
       <c r="G182" s="12"/>
@@ -3792,7 +7148,7 @@
     <row r="183" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D183" s="9"/>
       <c r="E183" s="10" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="F183" s="11"/>
       <c r="G183" s="12"/>
@@ -3801,7 +7157,7 @@
     <row r="184" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D184" s="9"/>
       <c r="E184" s="10" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F184" s="11"/>
       <c r="G184" s="12"/>
@@ -3810,7 +7166,7 @@
     <row r="185" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D185" s="9"/>
       <c r="E185" s="10" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F185" s="11"/>
       <c r="G185" s="13"/>
@@ -3819,7 +7175,7 @@
     <row r="186" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D186" s="9"/>
       <c r="E186" s="10" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F186" s="11"/>
       <c r="G186" s="12"/>
@@ -3828,7 +7184,7 @@
     <row r="187" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D187" s="9"/>
       <c r="E187" s="10" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F187" s="11"/>
       <c r="G187" s="12"/>
@@ -3837,7 +7193,7 @@
     <row r="188" spans="4:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D188" s="9"/>
       <c r="E188" s="10" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F188" s="11"/>
       <c r="G188" s="12"/>
@@ -3846,7 +7202,7 @@
     <row r="189" spans="4:8" ht="23.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D189" s="9"/>
       <c r="E189" s="10" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F189" s="11"/>
       <c r="G189" s="12"/>
@@ -3855,7 +7211,7 @@
     <row r="190" spans="4:8" ht="35.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D190" s="9"/>
       <c r="E190" s="10" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F190" s="11"/>
       <c r="G190" s="12"/>
@@ -3864,7 +7220,7 @@
     <row r="191" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D191" s="9"/>
       <c r="E191" s="10" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F191" s="11"/>
       <c r="G191" s="12"/>
@@ -3873,7 +7229,7 @@
     <row r="192" spans="4:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D192" s="9"/>
       <c r="E192" s="10" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F192" s="11"/>
       <c r="G192" s="12"/>
@@ -3882,7 +7238,7 @@
     <row r="193" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D193" s="9"/>
       <c r="E193" s="10" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F193" s="11"/>
       <c r="G193" s="12"/>
@@ -3891,7 +7247,7 @@
     <row r="194" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D194" s="9"/>
       <c r="E194" s="10" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="F194" s="11"/>
       <c r="G194" s="12"/>
@@ -3900,7 +7256,7 @@
     <row r="195" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D195" s="9"/>
       <c r="E195" s="10" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F195" s="11"/>
       <c r="G195" s="12"/>
@@ -3909,7 +7265,7 @@
     <row r="196" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D196" s="9"/>
       <c r="E196" s="10" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F196" s="11"/>
       <c r="G196" s="12"/>
@@ -3918,7 +7274,7 @@
     <row r="197" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D197" s="9"/>
       <c r="E197" s="10" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="F197" s="11"/>
       <c r="G197" s="12"/>
@@ -3927,7 +7283,7 @@
     <row r="198" spans="4:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="D198" s="15"/>
       <c r="E198" s="10" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="F198" s="5"/>
       <c r="G198" s="5"/>
@@ -3935,7 +7291,7 @@
     </row>
     <row r="199" spans="4:8" x14ac:dyDescent="0.35">
       <c r="E199" s="16" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3956,98 +7312,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
-    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2023-10-25T11:25:00+00:00</Date_x0020_Opened>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cb35823-445c-4345-bb19-437b7a53ef29">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
-    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
-    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
-    <TaxCatchAll xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
-      <Value>1</Value>
-    </TaxCatchAll>
-    <m975189f4ba442ecbf67d4147307b177 xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Market Frameworks:Office for Product Safety and Standards</TermName>
-          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ce37d5da-e07d-451f-b694-ebae85a28213</TermId>
-        </TermInfo>
-      </Terms>
-    </m975189f4ba442ecbf67d4147307b177>
-    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
-    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
-    <_dlc_DocId xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">TK5FE52DNWW3-504769661-1124554</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
-      <Url>https://beisgov.sharepoint.com/sites/OPSSDT2/_layouts/15/DocIdRedir.aspx?ID=TK5FE52DNWW3-504769661-1124554</Url>
-      <Description>TK5FE52DNWW3-504769661-1124554</Description>
-    </_dlc_DocIdUrl>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101008E1832423327A3409D09C9792ABD4B07" ma:contentTypeVersion="25" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2345ae34213ff0ad7e9477f838f6a2cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6e2ffcde-8175-4cfa-8e98-1eddac4a692a" xmlns:ns3="0063f72e-ace3-48fb-9c1f-5b513408b31f" xmlns:ns4="b413c3fd-5a3b-4239-b985-69032e371c04" xmlns:ns5="a8f60570-4bd3-4f2b-950b-a996de8ab151" xmlns:ns6="aaacb922-5235-4a66-b188-303b9b46fbd7" xmlns:ns7="6cb35823-445c-4345-bb19-437b7a53ef29" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="566a8b8c84c83c069c2c95f8aad3e685" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="">
     <xsd:import namespace="6e2ffcde-8175-4cfa-8e98-1eddac4a692a"/>
@@ -4414,38 +7678,99 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680E353F-568D-4B5D-A032-06EAFF3D6C5F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{260BFBB0-A7F4-4BD3-928C-4C04CDD84D99}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6451A11E-A4A2-48F4-B504-5DFCC53D6385}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
-    <ds:schemaRef ds:uri="6cb35823-445c-4345-bb19-437b7a53ef29"/>
-    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
-    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
-    <ds:schemaRef ds:uri="6e2ffcde-8175-4cfa-8e98-1eddac4a692a"/>
-    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Government_x0020_Body xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">BEIS</Government_x0020_Body>
+    <Date_x0020_Opened xmlns="b413c3fd-5a3b-4239-b985-69032e371c04">2023-10-25T11:25:00+00:00</Date_x0020_Opened>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6cb35823-445c-4345-bb19-437b7a53ef29">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <LegacyData xmlns="aaacb922-5235-4a66-b188-303b9b46fbd7" xsi:nil="true"/>
+    <Descriptor xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f" xsi:nil="true"/>
+    <Security_x0020_Classification xmlns="0063f72e-ace3-48fb-9c1f-5b513408b31f">OFFICIAL</Security_x0020_Classification>
+    <TaxCatchAll xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
+      <Value>1</Value>
+    </TaxCatchAll>
+    <m975189f4ba442ecbf67d4147307b177 xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+        <TermInfo xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+          <TermName xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">BEIS:Market Frameworks:Office for Product Safety and Standards</TermName>
+          <TermId xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">ce37d5da-e07d-451f-b694-ebae85a28213</TermId>
+        </TermInfo>
+      </Terms>
+    </m975189f4ba442ecbf67d4147307b177>
+    <Retention_x0020_Label xmlns="a8f60570-4bd3-4f2b-950b-a996de8ab151" xsi:nil="true"/>
+    <Date_x0020_Closed xmlns="b413c3fd-5a3b-4239-b985-69032e371c04" xsi:nil="true"/>
+    <_dlc_DocId xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">TK5FE52DNWW3-504769661-1125109</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="6e2ffcde-8175-4cfa-8e98-1eddac4a692a">
+      <Url>https://beisgov.sharepoint.com/sites/OPSSDT2/_layouts/15/DocIdRedir.aspx?ID=TK5FE52DNWW3-504769661-1125109</Url>
+      <Description>TK5FE52DNWW3-504769661-1125109</Description>
+    </_dlc_DocIdUrl>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CD62E41-456A-454F-BD71-7411BF4002A3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4466,4 +7791,35 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{680E353F-568D-4B5D-A032-06EAFF3D6C5F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{260BFBB0-A7F4-4BD3-928C-4C04CDD84D99}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6451A11E-A4A2-48F4-B504-5DFCC53D6385}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="b413c3fd-5a3b-4239-b985-69032e371c04"/>
+    <ds:schemaRef ds:uri="6cb35823-445c-4345-bb19-437b7a53ef29"/>
+    <ds:schemaRef ds:uri="aaacb922-5235-4a66-b188-303b9b46fbd7"/>
+    <ds:schemaRef ds:uri="0063f72e-ace3-48fb-9c1f-5b513408b31f"/>
+    <ds:schemaRef ds:uri="6e2ffcde-8175-4cfa-8e98-1eddac4a692a"/>
+    <ds:schemaRef ds:uri="a8f60570-4bd3-4f2b-950b-a996de8ab151"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>